--- a/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.000058893158975</v>
+      </c>
+      <c r="D2">
+        <v>1.021839439459152</v>
+      </c>
+      <c r="E2">
+        <v>1.008234023248659</v>
+      </c>
+      <c r="F2">
+        <v>1.021560832973479</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.047600325329676</v>
+      </c>
+      <c r="J2">
+        <v>1.022237842885435</v>
+      </c>
+      <c r="K2">
+        <v>1.033002675113272</v>
+      </c>
+      <c r="L2">
+        <v>1.019579824677308</v>
+      </c>
+      <c r="M2">
+        <v>1.032727745961176</v>
+      </c>
+      <c r="N2">
+        <v>1.023689537874652</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.01124174065917</v>
+      </c>
+      <c r="D3">
+        <v>1.030844975051597</v>
+      </c>
+      <c r="E3">
+        <v>1.018874855645561</v>
+      </c>
+      <c r="F3">
+        <v>1.031646165425893</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.0516808689772</v>
+      </c>
+      <c r="J3">
+        <v>1.031430566208173</v>
+      </c>
+      <c r="K3">
+        <v>1.041097832699476</v>
+      </c>
+      <c r="L3">
+        <v>1.029271793581273</v>
+      </c>
+      <c r="M3">
+        <v>1.041889527337766</v>
+      </c>
+      <c r="N3">
+        <v>1.032895315918928</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.018153467536253</v>
+      </c>
+      <c r="D4">
+        <v>1.036414985222286</v>
+      </c>
+      <c r="E4">
+        <v>1.025457490646265</v>
+      </c>
+      <c r="F4">
+        <v>1.037889406582471</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.054185404552554</v>
+      </c>
+      <c r="J4">
+        <v>1.037103935358279</v>
+      </c>
+      <c r="K4">
+        <v>1.046092914527321</v>
+      </c>
+      <c r="L4">
+        <v>1.035258076375857</v>
+      </c>
+      <c r="M4">
+        <v>1.047551074414982</v>
+      </c>
+      <c r="N4">
+        <v>1.038576741903972</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.020988048403646</v>
+      </c>
+      <c r="D5">
+        <v>1.038700063593252</v>
+      </c>
+      <c r="E5">
+        <v>1.028158409748091</v>
+      </c>
+      <c r="F5">
+        <v>1.040451989781666</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.055208248551768</v>
+      </c>
+      <c r="J5">
+        <v>1.039428572453381</v>
+      </c>
+      <c r="K5">
+        <v>1.048139345691036</v>
+      </c>
+      <c r="L5">
+        <v>1.037712075135265</v>
+      </c>
+      <c r="M5">
+        <v>1.049872537513339</v>
+      </c>
+      <c r="N5">
+        <v>1.040904680250388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.021459990729358</v>
+      </c>
+      <c r="D6">
+        <v>1.039080555312621</v>
+      </c>
+      <c r="E6">
+        <v>1.028608171701497</v>
+      </c>
+      <c r="F6">
+        <v>1.040878767307989</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.055378291079101</v>
+      </c>
+      <c r="J6">
+        <v>1.039815487424591</v>
+      </c>
+      <c r="K6">
+        <v>1.048479937580335</v>
+      </c>
+      <c r="L6">
+        <v>1.038120588573328</v>
+      </c>
+      <c r="M6">
+        <v>1.050259020482372</v>
+      </c>
+      <c r="N6">
+        <v>1.041292144685237</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.018191614777624</v>
+      </c>
+      <c r="D7">
+        <v>1.03644573464213</v>
+      </c>
+      <c r="E7">
+        <v>1.02549383406365</v>
+      </c>
+      <c r="F7">
+        <v>1.037923885027793</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.05419918696419</v>
+      </c>
+      <c r="J7">
+        <v>1.037135228226253</v>
+      </c>
+      <c r="K7">
+        <v>1.046120463546363</v>
+      </c>
+      <c r="L7">
+        <v>1.035291106084037</v>
+      </c>
+      <c r="M7">
+        <v>1.047582318016833</v>
+      </c>
+      <c r="N7">
+        <v>1.038608079211408</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.003909575026988</v>
+      </c>
+      <c r="D8">
+        <v>1.024939396871778</v>
+      </c>
+      <c r="E8">
+        <v>1.011896731543376</v>
+      </c>
+      <c r="F8">
+        <v>1.025031359558634</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.049009084667444</v>
+      </c>
+      <c r="J8">
+        <v>1.025404973486526</v>
+      </c>
+      <c r="K8">
+        <v>1.035791821150092</v>
+      </c>
+      <c r="L8">
+        <v>1.022917929784344</v>
+      </c>
+      <c r="M8">
+        <v>1.035882612875646</v>
+      </c>
+      <c r="N8">
+        <v>1.026861166164472</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9759063397780642</v>
+      </c>
+      <c r="D9">
+        <v>1.002424281349646</v>
+      </c>
+      <c r="E9">
+        <v>0.9852928892800947</v>
+      </c>
+      <c r="F9">
+        <v>0.9998474706863533</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.038690628969049</v>
+      </c>
+      <c r="J9">
+        <v>1.002339567152951</v>
+      </c>
+      <c r="K9">
+        <v>1.015478148351385</v>
+      </c>
+      <c r="L9">
+        <v>0.9986291727516544</v>
+      </c>
+      <c r="M9">
+        <v>1.012943023057034</v>
+      </c>
+      <c r="N9">
+        <v>1.003763004308264</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9547116999342549</v>
+      </c>
+      <c r="D10">
+        <v>0.9854363628662394</v>
+      </c>
+      <c r="E10">
+        <v>0.9652084872151208</v>
+      </c>
+      <c r="F10">
+        <v>0.9808738172411111</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.030791479571556</v>
+      </c>
+      <c r="J10">
+        <v>0.9848449693942509</v>
+      </c>
+      <c r="K10">
+        <v>1.000073642951929</v>
+      </c>
+      <c r="L10">
+        <v>0.9802356706165238</v>
+      </c>
+      <c r="M10">
+        <v>0.9955972063522303</v>
+      </c>
+      <c r="N10">
+        <v>0.9862435622140876</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.944744726286792</v>
+      </c>
+      <c r="D11">
+        <v>0.9774666186831201</v>
+      </c>
+      <c r="E11">
+        <v>0.9557794152231429</v>
+      </c>
+      <c r="F11">
+        <v>0.9719784662559743</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.027058131861075</v>
+      </c>
+      <c r="J11">
+        <v>0.9766116243046162</v>
+      </c>
+      <c r="K11">
+        <v>0.992826371195443</v>
+      </c>
+      <c r="L11">
+        <v>0.9715863947370588</v>
+      </c>
+      <c r="M11">
+        <v>0.9874489084787368</v>
+      </c>
+      <c r="N11">
+        <v>0.9779985248300479</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9409020852640919</v>
+      </c>
+      <c r="D12">
+        <v>0.9743975335725666</v>
+      </c>
+      <c r="E12">
+        <v>0.9521469296701751</v>
+      </c>
+      <c r="F12">
+        <v>0.9685537644436927</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.025616270617539</v>
+      </c>
+      <c r="J12">
+        <v>0.9734366963820129</v>
+      </c>
+      <c r="K12">
+        <v>0.9900322422546061</v>
+      </c>
+      <c r="L12">
+        <v>0.9682521655191945</v>
+      </c>
+      <c r="M12">
+        <v>0.9843092834897282</v>
+      </c>
+      <c r="N12">
+        <v>0.9748190881456248</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9417331194834828</v>
+      </c>
+      <c r="D13">
+        <v>0.9750611009762657</v>
+      </c>
+      <c r="E13">
+        <v>0.9529323820358202</v>
+      </c>
+      <c r="F13">
+        <v>0.9692941838966175</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.025928204527136</v>
+      </c>
+      <c r="J13">
+        <v>0.9741233511663774</v>
+      </c>
+      <c r="K13">
+        <v>0.9906365118477691</v>
+      </c>
+      <c r="L13">
+        <v>0.9689732236834746</v>
+      </c>
+      <c r="M13">
+        <v>0.9849881857615855</v>
+      </c>
+      <c r="N13">
+        <v>0.9755067180585438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9444301061372212</v>
+      </c>
+      <c r="D14">
+        <v>0.9772152581234955</v>
+      </c>
+      <c r="E14">
+        <v>0.9554819432349126</v>
+      </c>
+      <c r="F14">
+        <v>0.9716979641959345</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.026940126769429</v>
+      </c>
+      <c r="J14">
+        <v>0.9763516853313043</v>
+      </c>
+      <c r="K14">
+        <v>0.9925975968348889</v>
+      </c>
+      <c r="L14">
+        <v>0.9713133913099222</v>
+      </c>
+      <c r="M14">
+        <v>0.9871918077023953</v>
+      </c>
+      <c r="N14">
+        <v>0.9777382167135784</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9460724386922801</v>
+      </c>
+      <c r="D15">
+        <v>0.9785275201849267</v>
+      </c>
+      <c r="E15">
+        <v>0.9570348760270899</v>
+      </c>
+      <c r="F15">
+        <v>0.973162396334656</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.027556019571453</v>
+      </c>
+      <c r="J15">
+        <v>0.9777085545386877</v>
+      </c>
+      <c r="K15">
+        <v>0.9937918116558815</v>
+      </c>
+      <c r="L15">
+        <v>0.972738500397646</v>
+      </c>
+      <c r="M15">
+        <v>0.9885339643602544</v>
+      </c>
+      <c r="N15">
+        <v>0.979097012830871</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9553548080789328</v>
+      </c>
+      <c r="D16">
+        <v>0.9859510422821157</v>
+      </c>
+      <c r="E16">
+        <v>0.9658172403679833</v>
+      </c>
+      <c r="F16">
+        <v>0.981448387856548</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.031032011999588</v>
+      </c>
+      <c r="J16">
+        <v>0.9853761100284463</v>
+      </c>
+      <c r="K16">
+        <v>1.000541235011824</v>
+      </c>
+      <c r="L16">
+        <v>0.9807937896540305</v>
+      </c>
+      <c r="M16">
+        <v>0.9961231856306503</v>
+      </c>
+      <c r="N16">
+        <v>0.9867754571289065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9609523435596155</v>
+      </c>
+      <c r="D17">
+        <v>0.9904329106753601</v>
+      </c>
+      <c r="E17">
+        <v>0.9711175361862632</v>
+      </c>
+      <c r="F17">
+        <v>0.9864524483703659</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.033123539369962</v>
+      </c>
+      <c r="J17">
+        <v>0.989998418568109</v>
+      </c>
+      <c r="K17">
+        <v>1.004610791131124</v>
+      </c>
+      <c r="L17">
+        <v>0.9856516679692179</v>
+      </c>
+      <c r="M17">
+        <v>1.000702259412535</v>
+      </c>
+      <c r="N17">
+        <v>0.9914043298768814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9641428503552317</v>
+      </c>
+      <c r="D18">
+        <v>0.9929891952846047</v>
+      </c>
+      <c r="E18">
+        <v>0.9741400414441101</v>
+      </c>
+      <c r="F18">
+        <v>0.9893071261419614</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.034313940337973</v>
+      </c>
+      <c r="J18">
+        <v>0.992632457709608</v>
+      </c>
+      <c r="K18">
+        <v>1.006930051725539</v>
+      </c>
+      <c r="L18">
+        <v>0.9884205981868379</v>
+      </c>
+      <c r="M18">
+        <v>1.003313020978543</v>
+      </c>
+      <c r="N18">
+        <v>0.9940421096560897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9652186755726928</v>
+      </c>
+      <c r="D19">
+        <v>0.9938514326047135</v>
+      </c>
+      <c r="E19">
+        <v>0.975159448129482</v>
+      </c>
+      <c r="F19">
+        <v>0.9902701077615563</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.03471503641288</v>
+      </c>
+      <c r="J19">
+        <v>0.9935205348124039</v>
+      </c>
+      <c r="K19">
+        <v>1.007712030722496</v>
+      </c>
+      <c r="L19">
+        <v>0.9893542642393268</v>
+      </c>
+      <c r="M19">
+        <v>1.004193474300441</v>
+      </c>
+      <c r="N19">
+        <v>0.9949314479302356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9603596199983323</v>
+      </c>
+      <c r="D20">
+        <v>0.989958144478745</v>
+      </c>
+      <c r="E20">
+        <v>0.970556136669377</v>
+      </c>
+      <c r="F20">
+        <v>0.9859223087032084</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.032902246725204</v>
+      </c>
+      <c r="J20">
+        <v>0.9895090231051553</v>
+      </c>
+      <c r="K20">
+        <v>1.004179896334602</v>
+      </c>
+      <c r="L20">
+        <v>0.985137263075462</v>
+      </c>
+      <c r="M20">
+        <v>1.000217298035635</v>
+      </c>
+      <c r="N20">
+        <v>0.9909142394162361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9436399945452728</v>
+      </c>
+      <c r="D21">
+        <v>0.9765840709967469</v>
+      </c>
+      <c r="E21">
+        <v>0.9547349420672747</v>
+      </c>
+      <c r="F21">
+        <v>0.9709936133207073</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.026643739190664</v>
+      </c>
+      <c r="J21">
+        <v>0.9756988860886753</v>
+      </c>
+      <c r="K21">
+        <v>0.9920230725446894</v>
+      </c>
+      <c r="L21">
+        <v>0.9706278000781969</v>
+      </c>
+      <c r="M21">
+        <v>0.986546177241644</v>
+      </c>
+      <c r="N21">
+        <v>0.9770844904211478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9322991828951144</v>
+      </c>
+      <c r="D22">
+        <v>0.9675340153868179</v>
+      </c>
+      <c r="E22">
+        <v>0.9440202297903064</v>
+      </c>
+      <c r="F22">
+        <v>0.9608964092004902</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.022383946683589</v>
+      </c>
+      <c r="J22">
+        <v>0.9663278293812109</v>
+      </c>
+      <c r="K22">
+        <v>0.9837772826952084</v>
+      </c>
+      <c r="L22">
+        <v>0.9607886663744264</v>
+      </c>
+      <c r="M22">
+        <v>0.977284462440182</v>
+      </c>
+      <c r="N22">
+        <v>0.9677001257382837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9383987373422427</v>
+      </c>
+      <c r="D23">
+        <v>0.9723992349980307</v>
+      </c>
+      <c r="E23">
+        <v>0.9497813328952323</v>
+      </c>
+      <c r="F23">
+        <v>0.9663241447508658</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.024676281110017</v>
+      </c>
+      <c r="J23">
+        <v>0.9713681960205862</v>
+      </c>
+      <c r="K23">
+        <v>0.9882120192816635</v>
+      </c>
+      <c r="L23">
+        <v>0.9660801888820677</v>
+      </c>
+      <c r="M23">
+        <v>0.9822645273789359</v>
+      </c>
+      <c r="N23">
+        <v>0.9727476502764248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9606276747217923</v>
+      </c>
+      <c r="D24">
+        <v>0.9901728486555306</v>
+      </c>
+      <c r="E24">
+        <v>0.9708100209282046</v>
+      </c>
+      <c r="F24">
+        <v>0.9861620527654209</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.03300233007995</v>
+      </c>
+      <c r="J24">
+        <v>0.9897303503855517</v>
+      </c>
+      <c r="K24">
+        <v>1.004374766265523</v>
+      </c>
+      <c r="L24">
+        <v>0.9853698987487527</v>
+      </c>
+      <c r="M24">
+        <v>1.000436615791104</v>
+      </c>
+      <c r="N24">
+        <v>0.9911358810067569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9835378182861794</v>
+      </c>
+      <c r="D25">
+        <v>1.008553049139809</v>
+      </c>
+      <c r="E25">
+        <v>0.9925355055246217</v>
+      </c>
+      <c r="F25">
+        <v>1.006697898042941</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.041518124799318</v>
+      </c>
+      <c r="J25">
+        <v>1.00863219156145</v>
+      </c>
+      <c r="K25">
+        <v>1.021020025291872</v>
+      </c>
+      <c r="L25">
+        <v>1.00525081400864</v>
+      </c>
+      <c r="M25">
+        <v>1.019193120014121</v>
+      </c>
+      <c r="N25">
+        <v>1.010064564965196</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000058893158975</v>
+        <v>1.048668548696822</v>
       </c>
       <c r="D2">
-        <v>1.021839439459152</v>
+        <v>1.062928965121079</v>
       </c>
       <c r="E2">
-        <v>1.008234023248659</v>
+        <v>1.066352599742041</v>
       </c>
       <c r="F2">
-        <v>1.021560832973479</v>
+        <v>1.073042186323393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047600325329676</v>
+        <v>1.074214427715446</v>
       </c>
       <c r="J2">
-        <v>1.022237842885435</v>
+        <v>1.06948502314063</v>
       </c>
       <c r="K2">
-        <v>1.033002675113272</v>
+        <v>1.073576062123188</v>
       </c>
       <c r="L2">
-        <v>1.019579824677308</v>
+        <v>1.076958917101206</v>
       </c>
       <c r="M2">
-        <v>1.032727745961176</v>
+        <v>1.083569751702908</v>
       </c>
       <c r="N2">
-        <v>1.023689537874652</v>
+        <v>1.025791079394074</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01124174065917</v>
+        <v>1.054064424433048</v>
       </c>
       <c r="D3">
-        <v>1.030844975051597</v>
+        <v>1.067169542731023</v>
       </c>
       <c r="E3">
-        <v>1.018874855645561</v>
+        <v>1.071270298231709</v>
       </c>
       <c r="F3">
-        <v>1.031646165425893</v>
+        <v>1.077891516984693</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0516808689772</v>
+        <v>1.076454024674595</v>
       </c>
       <c r="J3">
-        <v>1.031430566208173</v>
+        <v>1.073182401237558</v>
       </c>
       <c r="K3">
-        <v>1.041097832699476</v>
+        <v>1.077009485994847</v>
       </c>
       <c r="L3">
-        <v>1.029271793581273</v>
+        <v>1.081065784696828</v>
       </c>
       <c r="M3">
-        <v>1.041889527337766</v>
+        <v>1.087616096135248</v>
       </c>
       <c r="N3">
-        <v>1.032895315918928</v>
+        <v>1.027113020825248</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018153467536253</v>
+        <v>1.057478475877332</v>
       </c>
       <c r="D4">
-        <v>1.036414985222286</v>
+        <v>1.069855015291663</v>
       </c>
       <c r="E4">
-        <v>1.025457490646265</v>
+        <v>1.074386539071384</v>
       </c>
       <c r="F4">
-        <v>1.037889406582471</v>
+        <v>1.080964472903813</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054185404552554</v>
+        <v>1.07786111072945</v>
       </c>
       <c r="J4">
-        <v>1.037103935358279</v>
+        <v>1.075518001586543</v>
       </c>
       <c r="K4">
-        <v>1.046092914527321</v>
+        <v>1.079177575153052</v>
       </c>
       <c r="L4">
-        <v>1.035258076375857</v>
+        <v>1.083663015285376</v>
       </c>
       <c r="M4">
-        <v>1.047551074414982</v>
+        <v>1.090174890106392</v>
       </c>
       <c r="N4">
-        <v>1.038576741903972</v>
+        <v>1.027947027083321</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020988048403646</v>
+        <v>1.058895952185003</v>
       </c>
       <c r="D5">
-        <v>1.038700063593252</v>
+        <v>1.070970516867535</v>
       </c>
       <c r="E5">
-        <v>1.028158409748091</v>
+        <v>1.075681464591582</v>
       </c>
       <c r="F5">
-        <v>1.040451989781666</v>
+        <v>1.082241415618816</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055208248551768</v>
+        <v>1.078442895867459</v>
       </c>
       <c r="J5">
-        <v>1.039428572453381</v>
+        <v>1.076486772832273</v>
       </c>
       <c r="K5">
-        <v>1.048139345691036</v>
+        <v>1.080076671692936</v>
       </c>
       <c r="L5">
-        <v>1.037712075135265</v>
+        <v>1.084741018711777</v>
       </c>
       <c r="M5">
-        <v>1.049872537513339</v>
+        <v>1.091236897725781</v>
       </c>
       <c r="N5">
-        <v>1.040904680250388</v>
+        <v>1.02829269457478</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021459990729358</v>
+        <v>1.059132930402111</v>
       </c>
       <c r="D6">
-        <v>1.039080555312621</v>
+        <v>1.071157039279179</v>
       </c>
       <c r="E6">
-        <v>1.028608171701497</v>
+        <v>1.075898017726987</v>
       </c>
       <c r="F6">
-        <v>1.040878767307989</v>
+        <v>1.082454961526974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055378291079101</v>
+        <v>1.078540017175613</v>
       </c>
       <c r="J6">
-        <v>1.039815487424591</v>
+        <v>1.076648678585026</v>
       </c>
       <c r="K6">
-        <v>1.048479937580335</v>
+        <v>1.08022692145718</v>
       </c>
       <c r="L6">
-        <v>1.038120588573328</v>
+        <v>1.084921221798719</v>
       </c>
       <c r="M6">
-        <v>1.050259020482372</v>
+        <v>1.091414424298697</v>
       </c>
       <c r="N6">
-        <v>1.041292144685237</v>
+        <v>1.028350448215599</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018191614777624</v>
+        <v>1.057497485211497</v>
       </c>
       <c r="D7">
-        <v>1.03644573464213</v>
+        <v>1.069869972935779</v>
       </c>
       <c r="E7">
-        <v>1.02549383406365</v>
+        <v>1.074403900632183</v>
       </c>
       <c r="F7">
-        <v>1.037923885027793</v>
+        <v>1.080981593353948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05419918696419</v>
+        <v>1.077868922484972</v>
       </c>
       <c r="J7">
-        <v>1.037135228226253</v>
+        <v>1.075530997253688</v>
       </c>
       <c r="K7">
-        <v>1.046120463546363</v>
+        <v>1.079189636938611</v>
       </c>
       <c r="L7">
-        <v>1.035291106084037</v>
+        <v>1.083677473439865</v>
       </c>
       <c r="M7">
-        <v>1.047582318016833</v>
+        <v>1.090189133897696</v>
       </c>
       <c r="N7">
-        <v>1.038608079211408</v>
+        <v>1.02795166513712</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.003909575026988</v>
+        <v>1.050508609368233</v>
       </c>
       <c r="D8">
-        <v>1.024939396871778</v>
+        <v>1.064374519489569</v>
       </c>
       <c r="E8">
-        <v>1.011896731543376</v>
+        <v>1.068028575704923</v>
       </c>
       <c r="F8">
-        <v>1.025031359558634</v>
+        <v>1.074694850811479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049009084667444</v>
+        <v>1.07498022264008</v>
       </c>
       <c r="J8">
-        <v>1.025404973486526</v>
+        <v>1.070746647698565</v>
       </c>
       <c r="K8">
-        <v>1.035791821150092</v>
+        <v>1.074747777503524</v>
       </c>
       <c r="L8">
-        <v>1.022917929784344</v>
+        <v>1.078359647268732</v>
       </c>
       <c r="M8">
-        <v>1.035882612875646</v>
+        <v>1.08494987073859</v>
       </c>
       <c r="N8">
-        <v>1.026861166164472</v>
+        <v>1.026242367191709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9759063397780642</v>
+        <v>1.037564240950773</v>
       </c>
       <c r="D9">
-        <v>1.002424281349646</v>
+        <v>1.054217863307558</v>
       </c>
       <c r="E9">
-        <v>0.9852928892800947</v>
+        <v>1.056260463163272</v>
       </c>
       <c r="F9">
-        <v>0.9998474706863533</v>
+        <v>1.063090819082145</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038690628969049</v>
+        <v>1.069552248758494</v>
       </c>
       <c r="J9">
-        <v>1.002339567152951</v>
+        <v>1.061856844803939</v>
       </c>
       <c r="K9">
-        <v>1.015478148351385</v>
+        <v>1.066488539984707</v>
       </c>
       <c r="L9">
-        <v>0.9986291727516544</v>
+        <v>1.068502243295403</v>
       </c>
       <c r="M9">
-        <v>1.012943023057034</v>
+        <v>1.075236988052545</v>
       </c>
       <c r="N9">
-        <v>1.003763004308264</v>
+        <v>1.023058508643742</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9547116999342549</v>
+        <v>1.028457488903588</v>
       </c>
       <c r="D10">
-        <v>0.9854363628662394</v>
+        <v>1.047090886523405</v>
       </c>
       <c r="E10">
-        <v>0.9652084872151208</v>
+        <v>1.048011330167913</v>
       </c>
       <c r="F10">
-        <v>0.9808738172411111</v>
+        <v>1.054957482769349</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030791479571556</v>
+        <v>1.065683333688338</v>
       </c>
       <c r="J10">
-        <v>0.9848449693942509</v>
+        <v>1.055585824254058</v>
       </c>
       <c r="K10">
-        <v>1.000073642951929</v>
+        <v>1.06065894943034</v>
       </c>
       <c r="L10">
-        <v>0.9802356706165238</v>
+        <v>1.06156465285091</v>
       </c>
       <c r="M10">
-        <v>0.9955972063522303</v>
+        <v>1.068400629445171</v>
       </c>
       <c r="N10">
-        <v>0.9862435622140876</v>
+        <v>1.020808157906827</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.944744726286792</v>
+        <v>1.024387614736644</v>
       </c>
       <c r="D11">
-        <v>0.9774666186831201</v>
+        <v>1.043911111293288</v>
       </c>
       <c r="E11">
-        <v>0.9557794152231429</v>
+        <v>1.044332613483459</v>
       </c>
       <c r="F11">
-        <v>0.9719784662559743</v>
+        <v>1.051330686956065</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027058131861075</v>
+        <v>1.063942978603068</v>
       </c>
       <c r="J11">
-        <v>0.9766116243046162</v>
+        <v>1.052779892472909</v>
       </c>
       <c r="K11">
-        <v>0.992826371195443</v>
+        <v>1.058049863470386</v>
       </c>
       <c r="L11">
-        <v>0.9715863947370588</v>
+        <v>1.05846425970736</v>
       </c>
       <c r="M11">
-        <v>0.9874489084787368</v>
+        <v>1.065345427003855</v>
       </c>
       <c r="N11">
-        <v>0.9779985248300479</v>
+        <v>1.019800413722697</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9409020852640919</v>
+        <v>1.022855613013443</v>
       </c>
       <c r="D12">
-        <v>0.9743975335725666</v>
+        <v>1.042715048918956</v>
       </c>
       <c r="E12">
-        <v>0.9521469296701751</v>
+        <v>1.042949105155039</v>
       </c>
       <c r="F12">
-        <v>0.9685537644436927</v>
+        <v>1.049966756297852</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025616270617539</v>
+        <v>1.063286220920135</v>
       </c>
       <c r="J12">
-        <v>0.9734366963820129</v>
+        <v>1.051723220170926</v>
       </c>
       <c r="K12">
-        <v>0.9900322422546061</v>
+        <v>1.057067231790176</v>
       </c>
       <c r="L12">
-        <v>0.9682521655191945</v>
+        <v>1.057297267393123</v>
       </c>
       <c r="M12">
-        <v>0.9843092834897282</v>
+        <v>1.064195442982113</v>
       </c>
       <c r="N12">
-        <v>0.9748190881456248</v>
+        <v>1.0194208045766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9417331194834828</v>
+        <v>1.023185171048324</v>
       </c>
       <c r="D13">
-        <v>0.9750611009762657</v>
+        <v>1.042972299694125</v>
       </c>
       <c r="E13">
-        <v>0.9529323820358202</v>
+        <v>1.043246662197208</v>
       </c>
       <c r="F13">
-        <v>0.9692941838966175</v>
+        <v>1.05026010023356</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025928204527136</v>
+        <v>1.063427573374767</v>
       </c>
       <c r="J13">
-        <v>0.9741233511663774</v>
+        <v>1.051950546642043</v>
       </c>
       <c r="K13">
-        <v>0.9906365118477691</v>
+        <v>1.057278633384899</v>
       </c>
       <c r="L13">
-        <v>0.9689732236834746</v>
+        <v>1.057548301743648</v>
       </c>
       <c r="M13">
-        <v>0.9849881857615855</v>
+        <v>1.064442818611756</v>
       </c>
       <c r="N13">
-        <v>0.9755067180585438</v>
+        <v>1.019502476090927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9444301061372212</v>
+        <v>1.024261400087735</v>
       </c>
       <c r="D14">
-        <v>0.9772152581234955</v>
+        <v>1.04381255469542</v>
       </c>
       <c r="E14">
-        <v>0.9554819432349126</v>
+        <v>1.044218606687973</v>
       </c>
       <c r="F14">
-        <v>0.9716979641959345</v>
+        <v>1.051218292351473</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026940126769429</v>
+        <v>1.063888904416392</v>
       </c>
       <c r="J14">
-        <v>0.9763516853313043</v>
+        <v>1.05269284685598</v>
       </c>
       <c r="K14">
-        <v>0.9925975968348889</v>
+        <v>1.057968918834501</v>
       </c>
       <c r="L14">
-        <v>0.9713133913099222</v>
+        <v>1.058368114670757</v>
       </c>
       <c r="M14">
-        <v>0.9871918077023953</v>
+        <v>1.06525068322623</v>
       </c>
       <c r="N14">
-        <v>0.9777382167135784</v>
+        <v>1.01976914469462</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9460724386922801</v>
+        <v>1.024921775260125</v>
       </c>
       <c r="D15">
-        <v>0.9785275201849267</v>
+        <v>1.044328255057093</v>
       </c>
       <c r="E15">
-        <v>0.9570348760270899</v>
+        <v>1.044815159838229</v>
       </c>
       <c r="F15">
-        <v>0.973162396334656</v>
+        <v>1.051806411668298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027556019571453</v>
+        <v>1.064171762517528</v>
       </c>
       <c r="J15">
-        <v>0.9777085545386877</v>
+        <v>1.053148265422494</v>
       </c>
       <c r="K15">
-        <v>0.9937918116558815</v>
+        <v>1.058392413820387</v>
       </c>
       <c r="L15">
-        <v>0.972738500397646</v>
+        <v>1.058871164178941</v>
       </c>
       <c r="M15">
-        <v>0.9885339643602544</v>
+        <v>1.065746401048094</v>
       </c>
       <c r="N15">
-        <v>0.979097012830871</v>
+        <v>1.019932738503015</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9553548080789328</v>
+        <v>1.028724821563727</v>
       </c>
       <c r="D16">
-        <v>0.9859510422821157</v>
+        <v>1.047299870102628</v>
       </c>
       <c r="E16">
-        <v>0.9658172403679833</v>
+        <v>1.04825313894181</v>
       </c>
       <c r="F16">
-        <v>0.981448387856548</v>
+        <v>1.05519588527162</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031032011999588</v>
+        <v>1.065797419425781</v>
       </c>
       <c r="J16">
-        <v>0.9853761100284463</v>
+        <v>1.05577006853207</v>
       </c>
       <c r="K16">
-        <v>1.000541235011824</v>
+        <v>1.06083025540874</v>
       </c>
       <c r="L16">
-        <v>0.9807937896540305</v>
+        <v>1.0617683110211</v>
       </c>
       <c r="M16">
-        <v>0.9961231856306503</v>
+        <v>1.068601318592512</v>
       </c>
       <c r="N16">
-        <v>0.9867754571289065</v>
+        <v>1.020874312931229</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9609523435596155</v>
+        <v>1.031075629680575</v>
       </c>
       <c r="D17">
-        <v>0.9904329106753601</v>
+        <v>1.049138195966231</v>
       </c>
       <c r="E17">
-        <v>0.9711175361862632</v>
+        <v>1.050380404146177</v>
       </c>
       <c r="F17">
-        <v>0.9864524483703659</v>
+        <v>1.057293217449877</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033123539369962</v>
+        <v>1.066799361718954</v>
       </c>
       <c r="J17">
-        <v>0.989998418568109</v>
+        <v>1.057389857198884</v>
       </c>
       <c r="K17">
-        <v>1.004610791131124</v>
+        <v>1.062336222034236</v>
       </c>
       <c r="L17">
-        <v>0.9856516679692179</v>
+        <v>1.063559207918103</v>
       </c>
       <c r="M17">
-        <v>1.000702259412535</v>
+        <v>1.070366102013069</v>
       </c>
       <c r="N17">
-        <v>0.9914043298768814</v>
+        <v>1.021455823690766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9641428503552317</v>
+        <v>1.032434691962439</v>
       </c>
       <c r="D18">
-        <v>0.9929891952846047</v>
+        <v>1.050201477308103</v>
       </c>
       <c r="E18">
-        <v>0.9741400414441101</v>
+        <v>1.051610972040822</v>
       </c>
       <c r="F18">
-        <v>0.9893071261419614</v>
+        <v>1.058506495904065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034313940337973</v>
+        <v>1.067377535796747</v>
       </c>
       <c r="J18">
-        <v>0.992632457709608</v>
+        <v>1.058325975844227</v>
       </c>
       <c r="K18">
-        <v>1.006930051725539</v>
+        <v>1.063206495757477</v>
       </c>
       <c r="L18">
-        <v>0.9884205981868379</v>
+        <v>1.064594573223079</v>
       </c>
       <c r="M18">
-        <v>1.003313020978543</v>
+        <v>1.071386365321055</v>
       </c>
       <c r="N18">
-        <v>0.9940421096560897</v>
+        <v>1.021791813620216</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9652186755726928</v>
+        <v>1.032896076868296</v>
       </c>
       <c r="D19">
-        <v>0.9938514326047135</v>
+        <v>1.050562530307099</v>
       </c>
       <c r="E19">
-        <v>0.975159448129482</v>
+        <v>1.052028858513491</v>
       </c>
       <c r="F19">
-        <v>0.9902701077615563</v>
+        <v>1.05891851524962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03471503641288</v>
+        <v>1.067573634971657</v>
       </c>
       <c r="J19">
-        <v>0.9935205348124039</v>
+        <v>1.058643720265418</v>
       </c>
       <c r="K19">
-        <v>1.007712030722496</v>
+        <v>1.063501879372179</v>
       </c>
       <c r="L19">
-        <v>0.9893542642393268</v>
+        <v>1.064946065535829</v>
       </c>
       <c r="M19">
-        <v>1.004193474300441</v>
+        <v>1.071732729678776</v>
       </c>
       <c r="N19">
-        <v>0.9949314479302356</v>
+        <v>1.021905843660633</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9603596199983323</v>
+        <v>1.030824672996652</v>
       </c>
       <c r="D20">
-        <v>0.989958144478745</v>
+        <v>1.048941896203952</v>
       </c>
       <c r="E20">
-        <v>0.970556136669377</v>
+        <v>1.050153233994624</v>
       </c>
       <c r="F20">
-        <v>0.9859223087032084</v>
+        <v>1.057069241076339</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032902246725204</v>
+        <v>1.066692512139163</v>
       </c>
       <c r="J20">
-        <v>0.9895090231051553</v>
+        <v>1.057216972399471</v>
       </c>
       <c r="K20">
-        <v>1.004179896334602</v>
+        <v>1.062175492372331</v>
       </c>
       <c r="L20">
-        <v>0.985137263075462</v>
+        <v>1.063368023001236</v>
       </c>
       <c r="M20">
-        <v>1.000217298035635</v>
+        <v>1.070177705295654</v>
       </c>
       <c r="N20">
-        <v>0.9909142394162361</v>
+        <v>1.021393765568695</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9436399945452728</v>
+        <v>1.023945047563607</v>
       </c>
       <c r="D21">
-        <v>0.9765840709967469</v>
+        <v>1.04356554062223</v>
       </c>
       <c r="E21">
-        <v>0.9547349420672747</v>
+        <v>1.043932873112939</v>
       </c>
       <c r="F21">
-        <v>0.9709936133207073</v>
+        <v>1.050936600240041</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026643739190664</v>
+        <v>1.063753343098272</v>
       </c>
       <c r="J21">
-        <v>0.9756988860886753</v>
+        <v>1.052474663068624</v>
       </c>
       <c r="K21">
-        <v>0.9920230725446894</v>
+        <v>1.057766026048418</v>
       </c>
       <c r="L21">
-        <v>0.9706278000781969</v>
+        <v>1.058127131949908</v>
       </c>
       <c r="M21">
-        <v>0.986546177241644</v>
+        <v>1.065013212686626</v>
       </c>
       <c r="N21">
-        <v>0.9770844904211478</v>
+        <v>1.019690765787729</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9322991828951144</v>
+        <v>1.019501583834707</v>
       </c>
       <c r="D22">
-        <v>0.9675340153868179</v>
+        <v>1.040098220275209</v>
       </c>
       <c r="E22">
-        <v>0.9440202297903064</v>
+        <v>1.039922557288389</v>
       </c>
       <c r="F22">
-        <v>0.9608964092004902</v>
+        <v>1.04698314046377</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022383946683589</v>
+        <v>1.061845409831188</v>
       </c>
       <c r="J22">
-        <v>0.9663278293812109</v>
+        <v>1.049409072303951</v>
       </c>
       <c r="K22">
-        <v>0.9837772826952084</v>
+        <v>1.054915086154722</v>
       </c>
       <c r="L22">
-        <v>0.9607886663744264</v>
+        <v>1.054742564093826</v>
       </c>
       <c r="M22">
-        <v>0.977284462440182</v>
+        <v>1.061677977124286</v>
       </c>
       <c r="N22">
-        <v>0.9677001257382837</v>
+        <v>1.018589270453223</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9383987373422427</v>
+        <v>1.021868776051028</v>
       </c>
       <c r="D23">
-        <v>0.9723992349980307</v>
+        <v>1.041944866991405</v>
       </c>
       <c r="E23">
-        <v>0.9497813328952323</v>
+        <v>1.04205828174279</v>
       </c>
       <c r="F23">
-        <v>0.9663241447508658</v>
+        <v>1.049088554233171</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024676281110017</v>
+        <v>1.06286271484461</v>
       </c>
       <c r="J23">
-        <v>0.9713681960205862</v>
+        <v>1.051042446574437</v>
       </c>
       <c r="K23">
-        <v>0.9882120192816635</v>
+        <v>1.056434136327426</v>
       </c>
       <c r="L23">
-        <v>0.9660801888820677</v>
+        <v>1.056545579444975</v>
       </c>
       <c r="M23">
-        <v>0.9822645273789359</v>
+        <v>1.063454710819772</v>
       </c>
       <c r="N23">
-        <v>0.9727476502764248</v>
+        <v>1.019176208914753</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9606276747217923</v>
+        <v>1.03093810689556</v>
       </c>
       <c r="D24">
-        <v>0.9901728486555306</v>
+        <v>1.049030623313544</v>
       </c>
       <c r="E24">
-        <v>0.9708100209282046</v>
+        <v>1.05025591394594</v>
       </c>
       <c r="F24">
-        <v>0.9861620527654209</v>
+        <v>1.057170477373354</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03300233007995</v>
+        <v>1.066740812115058</v>
       </c>
       <c r="J24">
-        <v>0.9897303503855517</v>
+        <v>1.057295118351704</v>
       </c>
       <c r="K24">
-        <v>1.004374766265523</v>
+        <v>1.062248144260124</v>
       </c>
       <c r="L24">
-        <v>0.9853698987487527</v>
+        <v>1.063454439707907</v>
       </c>
       <c r="M24">
-        <v>1.000436615791104</v>
+        <v>1.070262861736035</v>
       </c>
       <c r="N24">
-        <v>0.9911358810067569</v>
+        <v>1.021421816817097</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9835378182861794</v>
+        <v>1.040990548731689</v>
       </c>
       <c r="D25">
-        <v>1.008553049139809</v>
+        <v>1.056903379799209</v>
       </c>
       <c r="E25">
-        <v>0.9925355055246217</v>
+        <v>1.059370481267207</v>
       </c>
       <c r="F25">
-        <v>1.006697898042941</v>
+        <v>1.066157370152037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041518124799318</v>
+        <v>1.07099781371506</v>
       </c>
       <c r="J25">
-        <v>1.00863219156145</v>
+        <v>1.064213004172915</v>
       </c>
       <c r="K25">
-        <v>1.021020025291872</v>
+        <v>1.068678195899993</v>
       </c>
       <c r="L25">
-        <v>1.00525081400864</v>
+        <v>1.071112109248391</v>
       </c>
       <c r="M25">
-        <v>1.019193120014121</v>
+        <v>1.077808693102559</v>
       </c>
       <c r="N25">
-        <v>1.010064564965196</v>
+        <v>1.023903181660793</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.048668548696822</v>
+        <v>1.072214007652827</v>
       </c>
       <c r="D2">
-        <v>1.062928965121079</v>
+        <v>1.075219186007867</v>
       </c>
       <c r="E2">
-        <v>1.066352599742041</v>
+        <v>1.085045630645789</v>
       </c>
       <c r="F2">
-        <v>1.073042186323393</v>
+        <v>1.090363757551108</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.074214427715446</v>
+        <v>1.062857048207258</v>
       </c>
       <c r="J2">
-        <v>1.06948502314063</v>
+        <v>1.07713468491442</v>
       </c>
       <c r="K2">
-        <v>1.073576062123188</v>
+        <v>1.077906333905298</v>
       </c>
       <c r="L2">
-        <v>1.076958917101206</v>
+        <v>1.087707076622973</v>
       </c>
       <c r="M2">
-        <v>1.083569751702908</v>
+        <v>1.093011501941762</v>
       </c>
       <c r="N2">
-        <v>1.025791079394074</v>
+        <v>1.029212821801204</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.054064424433048</v>
+        <v>1.073334487314781</v>
       </c>
       <c r="D3">
-        <v>1.067169542731023</v>
+        <v>1.076113494583663</v>
       </c>
       <c r="E3">
-        <v>1.071270298231709</v>
+        <v>1.086112594503774</v>
       </c>
       <c r="F3">
-        <v>1.077891516984693</v>
+        <v>1.091413070642086</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.076454024674595</v>
+        <v>1.063249379241664</v>
       </c>
       <c r="J3">
-        <v>1.073182401237558</v>
+        <v>1.077912574307286</v>
       </c>
       <c r="K3">
-        <v>1.077009485994847</v>
+        <v>1.078617726725623</v>
       </c>
       <c r="L3">
-        <v>1.081065784696828</v>
+        <v>1.088592561733469</v>
       </c>
       <c r="M3">
-        <v>1.087616096135248</v>
+        <v>1.093880368806591</v>
       </c>
       <c r="N3">
-        <v>1.027113020825248</v>
+        <v>1.029484172785184</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.057478475877332</v>
+        <v>1.074059662519852</v>
       </c>
       <c r="D4">
-        <v>1.069855015291663</v>
+        <v>1.076692260955553</v>
       </c>
       <c r="E4">
-        <v>1.074386539071384</v>
+        <v>1.086803440952647</v>
       </c>
       <c r="F4">
-        <v>1.080964472903813</v>
+        <v>1.092092467506469</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.07786111072945</v>
+        <v>1.063502067416755</v>
       </c>
       <c r="J4">
-        <v>1.075518001586543</v>
+        <v>1.078415461713581</v>
       </c>
       <c r="K4">
-        <v>1.079177575153052</v>
+        <v>1.079077495111189</v>
       </c>
       <c r="L4">
-        <v>1.083663015285376</v>
+        <v>1.089165372127153</v>
       </c>
       <c r="M4">
-        <v>1.090174890106392</v>
+        <v>1.09444239325274</v>
       </c>
       <c r="N4">
-        <v>1.027947027083321</v>
+        <v>1.029659352790288</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.058895952185003</v>
+        <v>1.07436456252383</v>
       </c>
       <c r="D5">
-        <v>1.070970516867535</v>
+        <v>1.076935595398119</v>
       </c>
       <c r="E5">
-        <v>1.075681464591582</v>
+        <v>1.087093980359969</v>
       </c>
       <c r="F5">
-        <v>1.082241415618816</v>
+        <v>1.092378186652599</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.078442895867459</v>
+        <v>1.063608015949515</v>
       </c>
       <c r="J5">
-        <v>1.076486772832273</v>
+        <v>1.078626765725625</v>
       </c>
       <c r="K5">
-        <v>1.080076671692936</v>
+        <v>1.079270649945143</v>
       </c>
       <c r="L5">
-        <v>1.084741018711777</v>
+        <v>1.089406143864626</v>
       </c>
       <c r="M5">
-        <v>1.091236897725781</v>
+        <v>1.094678622674009</v>
       </c>
       <c r="N5">
-        <v>1.02829269457478</v>
+        <v>1.029732902049263</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.059132930402111</v>
+        <v>1.074415758720844</v>
       </c>
       <c r="D6">
-        <v>1.071157039279179</v>
+        <v>1.076976453550117</v>
       </c>
       <c r="E6">
-        <v>1.075898017726987</v>
+        <v>1.087142769510967</v>
       </c>
       <c r="F6">
-        <v>1.082454961526974</v>
+        <v>1.092426166056549</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.078540017175613</v>
+        <v>1.063625788663191</v>
       </c>
       <c r="J6">
-        <v>1.076648678585026</v>
+        <v>1.078662238158496</v>
       </c>
       <c r="K6">
-        <v>1.08022692145718</v>
+        <v>1.079303073761955</v>
       </c>
       <c r="L6">
-        <v>1.084921221798719</v>
+        <v>1.089446568285009</v>
       </c>
       <c r="M6">
-        <v>1.091414424298697</v>
+        <v>1.094718283954744</v>
       </c>
       <c r="N6">
-        <v>1.028350448215599</v>
+        <v>1.029745245636144</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.057497485211497</v>
+        <v>1.074063736465223</v>
       </c>
       <c r="D7">
-        <v>1.069869972935779</v>
+        <v>1.076695512319814</v>
       </c>
       <c r="E7">
-        <v>1.074403900632183</v>
+        <v>1.086807322731839</v>
       </c>
       <c r="F7">
-        <v>1.080981593353948</v>
+        <v>1.092096284904118</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077868922484972</v>
+        <v>1.063503484212607</v>
       </c>
       <c r="J7">
-        <v>1.075530997253688</v>
+        <v>1.078418285599719</v>
       </c>
       <c r="K7">
-        <v>1.079189636938611</v>
+        <v>1.079080076573447</v>
       </c>
       <c r="L7">
-        <v>1.083677473439865</v>
+        <v>1.089168589479228</v>
       </c>
       <c r="M7">
-        <v>1.090189133897696</v>
+        <v>1.094445549941275</v>
       </c>
       <c r="N7">
-        <v>1.02795166513712</v>
+        <v>1.029660335938079</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.050508609368233</v>
+        <v>1.07259264822544</v>
       </c>
       <c r="D8">
-        <v>1.064374519489569</v>
+        <v>1.075521403228715</v>
       </c>
       <c r="E8">
-        <v>1.068028575704923</v>
+        <v>1.085406122978635</v>
       </c>
       <c r="F8">
-        <v>1.074694850811479</v>
+        <v>1.090718290556159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.07498022264008</v>
+        <v>1.062989881875375</v>
       </c>
       <c r="J8">
-        <v>1.070746647698565</v>
+        <v>1.077397671350956</v>
       </c>
       <c r="K8">
-        <v>1.074747777503524</v>
+        <v>1.078146866364585</v>
       </c>
       <c r="L8">
-        <v>1.078359647268732</v>
+        <v>1.08800636310946</v>
       </c>
       <c r="M8">
-        <v>1.08494987073859</v>
+        <v>1.093305178985891</v>
       </c>
       <c r="N8">
-        <v>1.026242367191709</v>
+        <v>1.029304609347154</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.037564240950773</v>
+        <v>1.070001530667964</v>
       </c>
       <c r="D9">
-        <v>1.054217863307558</v>
+        <v>1.073453163741743</v>
       </c>
       <c r="E9">
-        <v>1.056260463163272</v>
+        <v>1.082940474197007</v>
       </c>
       <c r="F9">
-        <v>1.063090819082145</v>
+        <v>1.088293318439924</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.069552248758494</v>
+        <v>1.062075839362646</v>
       </c>
       <c r="J9">
-        <v>1.061856844803939</v>
+        <v>1.075595700619024</v>
       </c>
       <c r="K9">
-        <v>1.066488539984707</v>
+        <v>1.076498217374842</v>
       </c>
       <c r="L9">
-        <v>1.068502243295403</v>
+        <v>1.08595716379074</v>
       </c>
       <c r="M9">
-        <v>1.075236988052545</v>
+        <v>1.091294242200214</v>
       </c>
       <c r="N9">
-        <v>1.023058508643742</v>
+        <v>1.02867469831846</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.028457488903588</v>
+        <v>1.068274845956974</v>
       </c>
       <c r="D10">
-        <v>1.047090886523405</v>
+        <v>1.072074812452669</v>
       </c>
       <c r="E10">
-        <v>1.048011330167913</v>
+        <v>1.081299023315009</v>
       </c>
       <c r="F10">
-        <v>1.054957482769349</v>
+        <v>1.086678845400419</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.065683333688338</v>
+        <v>1.061460417250571</v>
       </c>
       <c r="J10">
-        <v>1.055585824254058</v>
+        <v>1.074392015875048</v>
       </c>
       <c r="K10">
-        <v>1.06065894943034</v>
+        <v>1.075396285039141</v>
       </c>
       <c r="L10">
-        <v>1.06156465285091</v>
+        <v>1.084590215645054</v>
       </c>
       <c r="M10">
-        <v>1.068400629445171</v>
+        <v>1.089952637364935</v>
       </c>
       <c r="N10">
-        <v>1.020808157906827</v>
+        <v>1.028252696205633</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.024387614736644</v>
+        <v>1.067527337018589</v>
       </c>
       <c r="D11">
-        <v>1.043911111293288</v>
+        <v>1.071478085232975</v>
       </c>
       <c r="E11">
-        <v>1.044332613483459</v>
+        <v>1.080588804915362</v>
       </c>
       <c r="F11">
-        <v>1.051330686956065</v>
+        <v>1.085980276411212</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.063942978603068</v>
+        <v>1.061192494080942</v>
       </c>
       <c r="J11">
-        <v>1.052779892472909</v>
+        <v>1.073870242720911</v>
       </c>
       <c r="K11">
-        <v>1.058049863470386</v>
+        <v>1.074918463423322</v>
       </c>
       <c r="L11">
-        <v>1.05846425970736</v>
+        <v>1.08399811709139</v>
       </c>
       <c r="M11">
-        <v>1.065345427003855</v>
+        <v>1.089371474193344</v>
       </c>
       <c r="N11">
-        <v>1.019800413722697</v>
+        <v>1.028069476729762</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.022855613013443</v>
+        <v>1.067249701713208</v>
       </c>
       <c r="D12">
-        <v>1.042715048918956</v>
+        <v>1.071256450415289</v>
       </c>
       <c r="E12">
-        <v>1.042949105155039</v>
+        <v>1.080325079201635</v>
       </c>
       <c r="F12">
-        <v>1.049966756297852</v>
+        <v>1.085720873049759</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.063286220920135</v>
+        <v>1.06109275877062</v>
       </c>
       <c r="J12">
-        <v>1.051723220170926</v>
+        <v>1.073676347074558</v>
       </c>
       <c r="K12">
-        <v>1.057067231790176</v>
+        <v>1.074740877228052</v>
       </c>
       <c r="L12">
-        <v>1.057297267393123</v>
+        <v>1.083778154893199</v>
       </c>
       <c r="M12">
-        <v>1.064195442982113</v>
+        <v>1.089155568158769</v>
       </c>
       <c r="N12">
-        <v>1.0194208045766</v>
+        <v>1.028001347320307</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.023185171048324</v>
+        <v>1.067309254409539</v>
       </c>
       <c r="D13">
-        <v>1.042972299694125</v>
+        <v>1.071303991100811</v>
       </c>
       <c r="E13">
-        <v>1.043246662197208</v>
+        <v>1.080381645599327</v>
       </c>
       <c r="F13">
-        <v>1.05026010023356</v>
+        <v>1.08577651250228</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.063427573374767</v>
+        <v>1.06111416214282</v>
       </c>
       <c r="J13">
-        <v>1.051950546642043</v>
+        <v>1.073717942238798</v>
       </c>
       <c r="K13">
-        <v>1.057278633384899</v>
+        <v>1.074778974686834</v>
       </c>
       <c r="L13">
-        <v>1.057548301743648</v>
+        <v>1.083825338912281</v>
       </c>
       <c r="M13">
-        <v>1.064442818611756</v>
+        <v>1.089201882375204</v>
       </c>
       <c r="N13">
-        <v>1.019502476090927</v>
+        <v>1.028015964636936</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.024261400087735</v>
+        <v>1.067504387137078</v>
       </c>
       <c r="D14">
-        <v>1.04381255469542</v>
+        <v>1.071459764498389</v>
       </c>
       <c r="E14">
-        <v>1.044218606687973</v>
+        <v>1.080567003613947</v>
       </c>
       <c r="F14">
-        <v>1.051218292351473</v>
+        <v>1.085958832493395</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.063888904416392</v>
+        <v>1.061184254350997</v>
       </c>
       <c r="J14">
-        <v>1.05269284685598</v>
+        <v>1.073854216999475</v>
       </c>
       <c r="K14">
-        <v>1.057968918834501</v>
+        <v>1.074903786174163</v>
       </c>
       <c r="L14">
-        <v>1.058368114670757</v>
+        <v>1.083979935569633</v>
       </c>
       <c r="M14">
-        <v>1.06525068322623</v>
+        <v>1.089353628071815</v>
       </c>
       <c r="N14">
-        <v>1.01976914469462</v>
+        <v>1.028063846631417</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.024921775260125</v>
+        <v>1.06762461784829</v>
       </c>
       <c r="D15">
-        <v>1.044328255057093</v>
+        <v>1.071555743782445</v>
       </c>
       <c r="E15">
-        <v>1.044815159838229</v>
+        <v>1.080681219534467</v>
       </c>
       <c r="F15">
-        <v>1.051806411668298</v>
+        <v>1.086071175959232</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.064171762517528</v>
+        <v>1.061227411751756</v>
       </c>
       <c r="J15">
-        <v>1.053148265422494</v>
+        <v>1.073938168991157</v>
       </c>
       <c r="K15">
-        <v>1.058392413820387</v>
+        <v>1.074980673133645</v>
       </c>
       <c r="L15">
-        <v>1.058871164178941</v>
+        <v>1.084075183632985</v>
       </c>
       <c r="M15">
-        <v>1.065746401048094</v>
+        <v>1.089447118807167</v>
       </c>
       <c r="N15">
-        <v>1.019932738503015</v>
+        <v>1.028093338565353</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.028724821563727</v>
+        <v>1.068324458903074</v>
       </c>
       <c r="D16">
-        <v>1.047299870102628</v>
+        <v>1.072114417549549</v>
       </c>
       <c r="E16">
-        <v>1.04825313894181</v>
+        <v>1.081346169544661</v>
       </c>
       <c r="F16">
-        <v>1.05519588527162</v>
+        <v>1.086725217825725</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.065797419425781</v>
+        <v>1.061478168046984</v>
       </c>
       <c r="J16">
-        <v>1.05577006853207</v>
+        <v>1.07442663221436</v>
       </c>
       <c r="K16">
-        <v>1.06083025540874</v>
+        <v>1.075427982194914</v>
       </c>
       <c r="L16">
-        <v>1.0617683110211</v>
+        <v>1.084629507021262</v>
       </c>
       <c r="M16">
-        <v>1.068601318592512</v>
+        <v>1.089991202190331</v>
       </c>
       <c r="N16">
-        <v>1.020874312931229</v>
+        <v>1.028264845563635</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.031075629680575</v>
+        <v>1.068763492171191</v>
       </c>
       <c r="D17">
-        <v>1.049138195966231</v>
+        <v>1.072464887766442</v>
       </c>
       <c r="E17">
-        <v>1.050380404146177</v>
+        <v>1.081763419723397</v>
       </c>
       <c r="F17">
-        <v>1.057293217449877</v>
+        <v>1.087135617054283</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.066799361718954</v>
+        <v>1.061635074838094</v>
       </c>
       <c r="J17">
-        <v>1.057389857198884</v>
+        <v>1.074732879567634</v>
       </c>
       <c r="K17">
-        <v>1.062336222034236</v>
+        <v>1.075708385810831</v>
       </c>
       <c r="L17">
-        <v>1.063559207918103</v>
+        <v>1.084977165460676</v>
       </c>
       <c r="M17">
-        <v>1.070366102013069</v>
+        <v>1.090332427089881</v>
       </c>
       <c r="N17">
-        <v>1.021455823690766</v>
+        <v>1.028372296277123</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.032434691962439</v>
+        <v>1.069019588042815</v>
       </c>
       <c r="D18">
-        <v>1.050201477308103</v>
+        <v>1.072669321532178</v>
       </c>
       <c r="E18">
-        <v>1.051610972040822</v>
+        <v>1.082006846873346</v>
       </c>
       <c r="F18">
-        <v>1.058506495904065</v>
+        <v>1.087375045051542</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.067377535796747</v>
+        <v>1.061726456858241</v>
       </c>
       <c r="J18">
-        <v>1.058325975844227</v>
+        <v>1.074911453516167</v>
       </c>
       <c r="K18">
-        <v>1.063206495757477</v>
+        <v>1.075871875124133</v>
       </c>
       <c r="L18">
-        <v>1.064594573223079</v>
+        <v>1.085179929369966</v>
       </c>
       <c r="M18">
-        <v>1.071386365321055</v>
+        <v>1.090531434712056</v>
       </c>
       <c r="N18">
-        <v>1.021791813620216</v>
+        <v>1.028434923201019</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.032896076868296</v>
+        <v>1.069106912717932</v>
       </c>
       <c r="D19">
-        <v>1.050562530307099</v>
+        <v>1.072739029929749</v>
       </c>
       <c r="E19">
-        <v>1.052028858513491</v>
+        <v>1.082089858097692</v>
       </c>
       <c r="F19">
-        <v>1.05891851524962</v>
+        <v>1.087456692138442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.067573634971657</v>
+        <v>1.061757592184465</v>
       </c>
       <c r="J19">
-        <v>1.058643720265418</v>
+        <v>1.074972333305445</v>
       </c>
       <c r="K19">
-        <v>1.063501879372179</v>
+        <v>1.075927609671851</v>
       </c>
       <c r="L19">
-        <v>1.064946065535829</v>
+        <v>1.085249063343772</v>
       </c>
       <c r="M19">
-        <v>1.071732729678776</v>
+        <v>1.090599287257833</v>
       </c>
       <c r="N19">
-        <v>1.021905843660633</v>
+        <v>1.028456269346273</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.030824672996652</v>
+        <v>1.06871638649037</v>
       </c>
       <c r="D20">
-        <v>1.048941896203952</v>
+        <v>1.072427284551206</v>
       </c>
       <c r="E20">
-        <v>1.050153233994624</v>
+        <v>1.081718647332179</v>
       </c>
       <c r="F20">
-        <v>1.057069241076339</v>
+        <v>1.087091580026252</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.066692512139163</v>
+        <v>1.061618254608796</v>
       </c>
       <c r="J20">
-        <v>1.057216972399471</v>
+        <v>1.074700027810654</v>
       </c>
       <c r="K20">
-        <v>1.062175492372331</v>
+        <v>1.075678307919359</v>
       </c>
       <c r="L20">
-        <v>1.063368023001236</v>
+        <v>1.084939867006131</v>
       </c>
       <c r="M20">
-        <v>1.070177705295654</v>
+        <v>1.090295819276879</v>
       </c>
       <c r="N20">
-        <v>1.021393765568695</v>
+        <v>1.028360772720369</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.023945047563607</v>
+        <v>1.067446924789307</v>
       </c>
       <c r="D21">
-        <v>1.04356554062223</v>
+        <v>1.071413892666875</v>
       </c>
       <c r="E21">
-        <v>1.043932873112939</v>
+        <v>1.0805124180636</v>
       </c>
       <c r="F21">
-        <v>1.050936600240041</v>
+        <v>1.085905141695968</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.063753343098272</v>
+        <v>1.061163619926475</v>
       </c>
       <c r="J21">
-        <v>1.052474663068624</v>
+        <v>1.073814089851475</v>
       </c>
       <c r="K21">
-        <v>1.057766026048418</v>
+        <v>1.074867035118225</v>
       </c>
       <c r="L21">
-        <v>1.058127131949908</v>
+        <v>1.083934411549225</v>
       </c>
       <c r="M21">
-        <v>1.065013212686626</v>
+        <v>1.089308943745896</v>
       </c>
       <c r="N21">
-        <v>1.019690765787729</v>
+        <v>1.02804974860712</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.019501583834707</v>
+        <v>1.066648895347342</v>
       </c>
       <c r="D22">
-        <v>1.040098220275209</v>
+        <v>1.070776826942595</v>
       </c>
       <c r="E22">
-        <v>1.039922557288389</v>
+        <v>1.079754482517352</v>
       </c>
       <c r="F22">
-        <v>1.04698314046377</v>
+        <v>1.085159622010472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.061845409831188</v>
+        <v>1.06087651912338</v>
       </c>
       <c r="J22">
-        <v>1.049409072303951</v>
+        <v>1.073256568573227</v>
       </c>
       <c r="K22">
-        <v>1.054915086154722</v>
+        <v>1.074356365649916</v>
       </c>
       <c r="L22">
-        <v>1.054742564093826</v>
+        <v>1.083302065610784</v>
       </c>
       <c r="M22">
-        <v>1.061677977124286</v>
+        <v>1.08868824665094</v>
       </c>
       <c r="N22">
-        <v>1.018589270453223</v>
+        <v>1.027853769955795</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.021868776051028</v>
+        <v>1.067071933647297</v>
       </c>
       <c r="D23">
-        <v>1.041944866991405</v>
+        <v>1.071114538622919</v>
       </c>
       <c r="E23">
-        <v>1.04205828174279</v>
+        <v>1.08015623413491</v>
       </c>
       <c r="F23">
-        <v>1.049088554233171</v>
+        <v>1.085554794325467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.06286271484461</v>
+        <v>1.061028835606301</v>
       </c>
       <c r="J23">
-        <v>1.051042446574437</v>
+        <v>1.073552168343799</v>
       </c>
       <c r="K23">
-        <v>1.056434136327426</v>
+        <v>1.074627137182248</v>
       </c>
       <c r="L23">
-        <v>1.056545579444975</v>
+        <v>1.083637300935868</v>
       </c>
       <c r="M23">
-        <v>1.063454710819772</v>
+        <v>1.089017309823656</v>
       </c>
       <c r="N23">
-        <v>1.019176208914753</v>
+        <v>1.027957702259092</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.03093810689556</v>
+        <v>1.068737671472664</v>
       </c>
       <c r="D24">
-        <v>1.049030623313544</v>
+        <v>1.072444275793254</v>
       </c>
       <c r="E24">
-        <v>1.05025591394594</v>
+        <v>1.081738877887168</v>
       </c>
       <c r="F24">
-        <v>1.057170477373354</v>
+        <v>1.087111478311893</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.066740812115058</v>
+        <v>1.061625855375951</v>
       </c>
       <c r="J24">
-        <v>1.057295118351704</v>
+        <v>1.074714872275173</v>
       </c>
       <c r="K24">
-        <v>1.062248144260124</v>
+        <v>1.075691899025677</v>
       </c>
       <c r="L24">
-        <v>1.063454439707907</v>
+        <v>1.084956720631951</v>
       </c>
       <c r="M24">
-        <v>1.070262861736035</v>
+        <v>1.090312360842996</v>
       </c>
       <c r="N24">
-        <v>1.021421816817097</v>
+        <v>1.028365979865629</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.040990548731689</v>
+        <v>1.070671266246804</v>
       </c>
       <c r="D25">
-        <v>1.056903379799209</v>
+        <v>1.073987770275085</v>
       </c>
       <c r="E25">
-        <v>1.059370481267207</v>
+        <v>1.083577495431351</v>
       </c>
       <c r="F25">
-        <v>1.066157370152037</v>
+        <v>1.088919848744567</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.07099781371506</v>
+        <v>1.062313209250466</v>
       </c>
       <c r="J25">
-        <v>1.064213004172915</v>
+        <v>1.076061970734441</v>
       </c>
       <c r="K25">
-        <v>1.068678195899993</v>
+        <v>1.076924931986327</v>
       </c>
       <c r="L25">
-        <v>1.071112109248391</v>
+        <v>1.086487074409189</v>
       </c>
       <c r="M25">
-        <v>1.077808693102559</v>
+        <v>1.091814290324339</v>
       </c>
       <c r="N25">
-        <v>1.023903181660793</v>
+        <v>1.028837909218664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072214007652827</v>
+        <v>1.04866854869682</v>
       </c>
       <c r="D2">
-        <v>1.075219186007867</v>
+        <v>1.062928965121077</v>
       </c>
       <c r="E2">
-        <v>1.085045630645789</v>
+        <v>1.06635259974204</v>
       </c>
       <c r="F2">
-        <v>1.090363757551108</v>
+        <v>1.073042186323391</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062857048207258</v>
+        <v>1.074214427715445</v>
       </c>
       <c r="J2">
-        <v>1.07713468491442</v>
+        <v>1.069485023140628</v>
       </c>
       <c r="K2">
-        <v>1.077906333905298</v>
+        <v>1.073576062123186</v>
       </c>
       <c r="L2">
-        <v>1.087707076622973</v>
+        <v>1.076958917101204</v>
       </c>
       <c r="M2">
-        <v>1.093011501941762</v>
+        <v>1.083569751702906</v>
       </c>
       <c r="N2">
-        <v>1.029212821801204</v>
+        <v>1.025791079394073</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073334487314781</v>
+        <v>1.054064424433049</v>
       </c>
       <c r="D3">
-        <v>1.076113494583663</v>
+        <v>1.067169542731024</v>
       </c>
       <c r="E3">
-        <v>1.086112594503774</v>
+        <v>1.071270298231711</v>
       </c>
       <c r="F3">
-        <v>1.091413070642086</v>
+        <v>1.077891516984695</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063249379241664</v>
+        <v>1.076454024674596</v>
       </c>
       <c r="J3">
-        <v>1.077912574307286</v>
+        <v>1.073182401237559</v>
       </c>
       <c r="K3">
-        <v>1.078617726725623</v>
+        <v>1.077009485994848</v>
       </c>
       <c r="L3">
-        <v>1.088592561733469</v>
+        <v>1.081065784696829</v>
       </c>
       <c r="M3">
-        <v>1.093880368806591</v>
+        <v>1.087616096135249</v>
       </c>
       <c r="N3">
-        <v>1.029484172785184</v>
+        <v>1.027113020825249</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.074059662519852</v>
+        <v>1.057478475877331</v>
       </c>
       <c r="D4">
-        <v>1.076692260955553</v>
+        <v>1.069855015291662</v>
       </c>
       <c r="E4">
-        <v>1.086803440952647</v>
+        <v>1.074386539071383</v>
       </c>
       <c r="F4">
-        <v>1.092092467506469</v>
+        <v>1.080964472903812</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063502067416755</v>
+        <v>1.077861110729449</v>
       </c>
       <c r="J4">
-        <v>1.078415461713581</v>
+        <v>1.075518001586542</v>
       </c>
       <c r="K4">
-        <v>1.079077495111189</v>
+        <v>1.079177575153052</v>
       </c>
       <c r="L4">
-        <v>1.089165372127153</v>
+        <v>1.083663015285375</v>
       </c>
       <c r="M4">
-        <v>1.09444239325274</v>
+        <v>1.090174890106391</v>
       </c>
       <c r="N4">
-        <v>1.029659352790288</v>
+        <v>1.027947027083321</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07436456252383</v>
+        <v>1.058895952185002</v>
       </c>
       <c r="D5">
-        <v>1.076935595398119</v>
+        <v>1.070970516867535</v>
       </c>
       <c r="E5">
-        <v>1.087093980359969</v>
+        <v>1.075681464591582</v>
       </c>
       <c r="F5">
-        <v>1.092378186652599</v>
+        <v>1.082241415618816</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063608015949515</v>
+        <v>1.078442895867459</v>
       </c>
       <c r="J5">
-        <v>1.078626765725625</v>
+        <v>1.076486772832272</v>
       </c>
       <c r="K5">
-        <v>1.079270649945143</v>
+        <v>1.080076671692936</v>
       </c>
       <c r="L5">
-        <v>1.089406143864626</v>
+        <v>1.084741018711776</v>
       </c>
       <c r="M5">
-        <v>1.094678622674009</v>
+        <v>1.09123689772578</v>
       </c>
       <c r="N5">
-        <v>1.029732902049263</v>
+        <v>1.02829269457478</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.074415758720844</v>
+        <v>1.05913293040211</v>
       </c>
       <c r="D6">
-        <v>1.076976453550117</v>
+        <v>1.071157039279178</v>
       </c>
       <c r="E6">
-        <v>1.087142769510967</v>
+        <v>1.075898017726986</v>
       </c>
       <c r="F6">
-        <v>1.092426166056549</v>
+        <v>1.082454961526974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063625788663191</v>
+        <v>1.078540017175613</v>
       </c>
       <c r="J6">
-        <v>1.078662238158496</v>
+        <v>1.076648678585025</v>
       </c>
       <c r="K6">
-        <v>1.079303073761955</v>
+        <v>1.080226921457179</v>
       </c>
       <c r="L6">
-        <v>1.089446568285009</v>
+        <v>1.084921221798719</v>
       </c>
       <c r="M6">
-        <v>1.094718283954744</v>
+        <v>1.091414424298697</v>
       </c>
       <c r="N6">
-        <v>1.029745245636144</v>
+        <v>1.028350448215598</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074063736465223</v>
+        <v>1.057497485211498</v>
       </c>
       <c r="D7">
-        <v>1.076695512319814</v>
+        <v>1.06986997293578</v>
       </c>
       <c r="E7">
-        <v>1.086807322731839</v>
+        <v>1.074403900632185</v>
       </c>
       <c r="F7">
-        <v>1.092096284904118</v>
+        <v>1.080981593353949</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063503484212607</v>
+        <v>1.077868922484973</v>
       </c>
       <c r="J7">
-        <v>1.078418285599719</v>
+        <v>1.07553099725369</v>
       </c>
       <c r="K7">
-        <v>1.079080076573447</v>
+        <v>1.079189636938612</v>
       </c>
       <c r="L7">
-        <v>1.089168589479228</v>
+        <v>1.083677473439866</v>
       </c>
       <c r="M7">
-        <v>1.094445549941275</v>
+        <v>1.090189133897697</v>
       </c>
       <c r="N7">
-        <v>1.029660335938079</v>
+        <v>1.027951665137121</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.07259264822544</v>
+        <v>1.050508609368234</v>
       </c>
       <c r="D8">
-        <v>1.075521403228715</v>
+        <v>1.06437451948957</v>
       </c>
       <c r="E8">
-        <v>1.085406122978635</v>
+        <v>1.068028575704924</v>
       </c>
       <c r="F8">
-        <v>1.090718290556159</v>
+        <v>1.07469485081148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062989881875375</v>
+        <v>1.074980222640081</v>
       </c>
       <c r="J8">
-        <v>1.077397671350956</v>
+        <v>1.070746647698566</v>
       </c>
       <c r="K8">
-        <v>1.078146866364585</v>
+        <v>1.074747777503525</v>
       </c>
       <c r="L8">
-        <v>1.08800636310946</v>
+        <v>1.078359647268733</v>
       </c>
       <c r="M8">
-        <v>1.093305178985891</v>
+        <v>1.084949870738591</v>
       </c>
       <c r="N8">
-        <v>1.029304609347154</v>
+        <v>1.02624236719171</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.070001530667964</v>
+        <v>1.037564240950775</v>
       </c>
       <c r="D9">
-        <v>1.073453163741743</v>
+        <v>1.05421786330756</v>
       </c>
       <c r="E9">
-        <v>1.082940474197007</v>
+        <v>1.056260463163274</v>
       </c>
       <c r="F9">
-        <v>1.088293318439924</v>
+        <v>1.063090819082147</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062075839362646</v>
+        <v>1.069552248758495</v>
       </c>
       <c r="J9">
-        <v>1.075595700619024</v>
+        <v>1.06185684480394</v>
       </c>
       <c r="K9">
-        <v>1.076498217374842</v>
+        <v>1.066488539984708</v>
       </c>
       <c r="L9">
-        <v>1.08595716379074</v>
+        <v>1.068502243295405</v>
       </c>
       <c r="M9">
-        <v>1.091294242200214</v>
+        <v>1.075236988052547</v>
       </c>
       <c r="N9">
-        <v>1.02867469831846</v>
+        <v>1.023058508643742</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.068274845956974</v>
+        <v>1.028457488903589</v>
       </c>
       <c r="D10">
-        <v>1.072074812452669</v>
+        <v>1.047090886523406</v>
       </c>
       <c r="E10">
-        <v>1.081299023315009</v>
+        <v>1.048011330167914</v>
       </c>
       <c r="F10">
-        <v>1.086678845400419</v>
+        <v>1.054957482769349</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.061460417250571</v>
+        <v>1.065683333688338</v>
       </c>
       <c r="J10">
-        <v>1.074392015875048</v>
+        <v>1.055585824254059</v>
       </c>
       <c r="K10">
-        <v>1.075396285039141</v>
+        <v>1.06065894943034</v>
       </c>
       <c r="L10">
-        <v>1.084590215645054</v>
+        <v>1.06156465285091</v>
       </c>
       <c r="M10">
-        <v>1.089952637364935</v>
+        <v>1.068400629445172</v>
       </c>
       <c r="N10">
-        <v>1.028252696205633</v>
+        <v>1.020808157906828</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067527337018589</v>
+        <v>1.024387614736644</v>
       </c>
       <c r="D11">
-        <v>1.071478085232975</v>
+        <v>1.043911111293288</v>
       </c>
       <c r="E11">
-        <v>1.080588804915362</v>
+        <v>1.044332613483459</v>
       </c>
       <c r="F11">
-        <v>1.085980276411212</v>
+        <v>1.051330686956065</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.061192494080942</v>
+        <v>1.063942978603068</v>
       </c>
       <c r="J11">
-        <v>1.073870242720911</v>
+        <v>1.052779892472909</v>
       </c>
       <c r="K11">
-        <v>1.074918463423322</v>
+        <v>1.058049863470386</v>
       </c>
       <c r="L11">
-        <v>1.08399811709139</v>
+        <v>1.05846425970736</v>
       </c>
       <c r="M11">
-        <v>1.089371474193344</v>
+        <v>1.065345427003855</v>
       </c>
       <c r="N11">
-        <v>1.028069476729762</v>
+        <v>1.019800413722697</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067249701713208</v>
+        <v>1.022855613013443</v>
       </c>
       <c r="D12">
-        <v>1.071256450415289</v>
+        <v>1.042715048918956</v>
       </c>
       <c r="E12">
-        <v>1.080325079201635</v>
+        <v>1.042949105155039</v>
       </c>
       <c r="F12">
-        <v>1.085720873049759</v>
+        <v>1.049966756297853</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.06109275877062</v>
+        <v>1.063286220920135</v>
       </c>
       <c r="J12">
-        <v>1.073676347074558</v>
+        <v>1.051723220170925</v>
       </c>
       <c r="K12">
-        <v>1.074740877228052</v>
+        <v>1.057067231790175</v>
       </c>
       <c r="L12">
-        <v>1.083778154893199</v>
+        <v>1.057297267393123</v>
       </c>
       <c r="M12">
-        <v>1.089155568158769</v>
+        <v>1.064195442982113</v>
       </c>
       <c r="N12">
-        <v>1.028001347320307</v>
+        <v>1.0194208045766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.067309254409539</v>
+        <v>1.023185171048324</v>
       </c>
       <c r="D13">
-        <v>1.071303991100811</v>
+        <v>1.042972299694124</v>
       </c>
       <c r="E13">
-        <v>1.080381645599327</v>
+        <v>1.043246662197207</v>
       </c>
       <c r="F13">
-        <v>1.08577651250228</v>
+        <v>1.050260100233559</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.06111416214282</v>
+        <v>1.063427573374767</v>
       </c>
       <c r="J13">
-        <v>1.073717942238798</v>
+        <v>1.051950546642042</v>
       </c>
       <c r="K13">
-        <v>1.074778974686834</v>
+        <v>1.057278633384898</v>
       </c>
       <c r="L13">
-        <v>1.083825338912281</v>
+        <v>1.057548301743647</v>
       </c>
       <c r="M13">
-        <v>1.089201882375204</v>
+        <v>1.064442818611756</v>
       </c>
       <c r="N13">
-        <v>1.028015964636936</v>
+        <v>1.019502476090927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.067504387137078</v>
+        <v>1.024261400087737</v>
       </c>
       <c r="D14">
-        <v>1.071459764498389</v>
+        <v>1.043812554695421</v>
       </c>
       <c r="E14">
-        <v>1.080567003613947</v>
+        <v>1.044218606687974</v>
       </c>
       <c r="F14">
-        <v>1.085958832493395</v>
+        <v>1.051218292351475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.061184254350997</v>
+        <v>1.063888904416393</v>
       </c>
       <c r="J14">
-        <v>1.073854216999475</v>
+        <v>1.052692846855982</v>
       </c>
       <c r="K14">
-        <v>1.074903786174163</v>
+        <v>1.057968918834503</v>
       </c>
       <c r="L14">
-        <v>1.083979935569633</v>
+        <v>1.058368114670759</v>
       </c>
       <c r="M14">
-        <v>1.089353628071815</v>
+        <v>1.065250683226232</v>
       </c>
       <c r="N14">
-        <v>1.028063846631417</v>
+        <v>1.01976914469462</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.06762461784829</v>
+        <v>1.024921775260125</v>
       </c>
       <c r="D15">
-        <v>1.071555743782445</v>
+        <v>1.044328255057092</v>
       </c>
       <c r="E15">
-        <v>1.080681219534467</v>
+        <v>1.044815159838228</v>
       </c>
       <c r="F15">
-        <v>1.086071175959232</v>
+        <v>1.051806411668298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.061227411751756</v>
+        <v>1.064171762517528</v>
       </c>
       <c r="J15">
-        <v>1.073938168991157</v>
+        <v>1.053148265422493</v>
       </c>
       <c r="K15">
-        <v>1.074980673133645</v>
+        <v>1.058392413820386</v>
       </c>
       <c r="L15">
-        <v>1.084075183632985</v>
+        <v>1.05887116417894</v>
       </c>
       <c r="M15">
-        <v>1.089447118807167</v>
+        <v>1.065746401048093</v>
       </c>
       <c r="N15">
-        <v>1.028093338565353</v>
+        <v>1.019932738503015</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.068324458903074</v>
+        <v>1.028724821563728</v>
       </c>
       <c r="D16">
-        <v>1.072114417549549</v>
+        <v>1.04729987010263</v>
       </c>
       <c r="E16">
-        <v>1.081346169544661</v>
+        <v>1.048253138941812</v>
       </c>
       <c r="F16">
-        <v>1.086725217825725</v>
+        <v>1.055195885271622</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.061478168046984</v>
+        <v>1.065797419425782</v>
       </c>
       <c r="J16">
-        <v>1.07442663221436</v>
+        <v>1.055770068532071</v>
       </c>
       <c r="K16">
-        <v>1.075427982194914</v>
+        <v>1.060830255408741</v>
       </c>
       <c r="L16">
-        <v>1.084629507021262</v>
+        <v>1.061768311021101</v>
       </c>
       <c r="M16">
-        <v>1.089991202190331</v>
+        <v>1.068601318592513</v>
       </c>
       <c r="N16">
-        <v>1.028264845563635</v>
+        <v>1.020874312931229</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068763492171191</v>
+        <v>1.031075629680574</v>
       </c>
       <c r="D17">
-        <v>1.072464887766442</v>
+        <v>1.04913819596623</v>
       </c>
       <c r="E17">
-        <v>1.081763419723397</v>
+        <v>1.050380404146177</v>
       </c>
       <c r="F17">
-        <v>1.087135617054283</v>
+        <v>1.057293217449876</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.061635074838094</v>
+        <v>1.066799361718953</v>
       </c>
       <c r="J17">
-        <v>1.074732879567634</v>
+        <v>1.057389857198884</v>
       </c>
       <c r="K17">
-        <v>1.075708385810831</v>
+        <v>1.062336222034235</v>
       </c>
       <c r="L17">
-        <v>1.084977165460676</v>
+        <v>1.063559207918102</v>
       </c>
       <c r="M17">
-        <v>1.090332427089881</v>
+        <v>1.070366102013067</v>
       </c>
       <c r="N17">
-        <v>1.028372296277123</v>
+        <v>1.021455823690766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.069019588042815</v>
+        <v>1.032434691962438</v>
       </c>
       <c r="D18">
-        <v>1.072669321532178</v>
+        <v>1.050201477308101</v>
       </c>
       <c r="E18">
-        <v>1.082006846873346</v>
+        <v>1.05161097204082</v>
       </c>
       <c r="F18">
-        <v>1.087375045051542</v>
+        <v>1.058506495904063</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061726456858241</v>
+        <v>1.067377535796747</v>
       </c>
       <c r="J18">
-        <v>1.074911453516167</v>
+        <v>1.058325975844226</v>
       </c>
       <c r="K18">
-        <v>1.075871875124133</v>
+        <v>1.063206495757475</v>
       </c>
       <c r="L18">
-        <v>1.085179929369966</v>
+        <v>1.064594573223078</v>
       </c>
       <c r="M18">
-        <v>1.090531434712056</v>
+        <v>1.071386365321054</v>
       </c>
       <c r="N18">
-        <v>1.028434923201019</v>
+        <v>1.021791813620215</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.069106912717932</v>
+        <v>1.032896076868298</v>
       </c>
       <c r="D19">
-        <v>1.072739029929749</v>
+        <v>1.0505625303071</v>
       </c>
       <c r="E19">
-        <v>1.082089858097692</v>
+        <v>1.052028858513492</v>
       </c>
       <c r="F19">
-        <v>1.087456692138442</v>
+        <v>1.058918515249621</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061757592184465</v>
+        <v>1.067573634971658</v>
       </c>
       <c r="J19">
-        <v>1.074972333305445</v>
+        <v>1.058643720265419</v>
       </c>
       <c r="K19">
-        <v>1.075927609671851</v>
+        <v>1.06350187937218</v>
       </c>
       <c r="L19">
-        <v>1.085249063343772</v>
+        <v>1.06494606553583</v>
       </c>
       <c r="M19">
-        <v>1.090599287257833</v>
+        <v>1.071732729678778</v>
       </c>
       <c r="N19">
-        <v>1.028456269346273</v>
+        <v>1.021905843660634</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.06871638649037</v>
+        <v>1.030824672996655</v>
       </c>
       <c r="D20">
-        <v>1.072427284551206</v>
+        <v>1.048941896203955</v>
       </c>
       <c r="E20">
-        <v>1.081718647332179</v>
+        <v>1.050153233994628</v>
       </c>
       <c r="F20">
-        <v>1.087091580026252</v>
+        <v>1.057069241076342</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061618254608796</v>
+        <v>1.066692512139165</v>
       </c>
       <c r="J20">
-        <v>1.074700027810654</v>
+        <v>1.057216972399474</v>
       </c>
       <c r="K20">
-        <v>1.075678307919359</v>
+        <v>1.062175492372335</v>
       </c>
       <c r="L20">
-        <v>1.084939867006131</v>
+        <v>1.06336802300124</v>
       </c>
       <c r="M20">
-        <v>1.090295819276879</v>
+        <v>1.070177705295657</v>
       </c>
       <c r="N20">
-        <v>1.028360772720369</v>
+        <v>1.021393765568696</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067446924789307</v>
+        <v>1.023945047563606</v>
       </c>
       <c r="D21">
-        <v>1.071413892666875</v>
+        <v>1.04356554062223</v>
       </c>
       <c r="E21">
-        <v>1.0805124180636</v>
+        <v>1.043932873112938</v>
       </c>
       <c r="F21">
-        <v>1.085905141695968</v>
+        <v>1.05093660024004</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.061163619926475</v>
+        <v>1.063753343098272</v>
       </c>
       <c r="J21">
-        <v>1.073814089851475</v>
+        <v>1.052474663068623</v>
       </c>
       <c r="K21">
-        <v>1.074867035118225</v>
+        <v>1.057766026048417</v>
       </c>
       <c r="L21">
-        <v>1.083934411549225</v>
+        <v>1.058127131949907</v>
       </c>
       <c r="M21">
-        <v>1.089308943745896</v>
+        <v>1.065013212686625</v>
       </c>
       <c r="N21">
-        <v>1.02804974860712</v>
+        <v>1.019690765787729</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.066648895347342</v>
+        <v>1.019501583834708</v>
       </c>
       <c r="D22">
-        <v>1.070776826942595</v>
+        <v>1.04009822027521</v>
       </c>
       <c r="E22">
-        <v>1.079754482517352</v>
+        <v>1.03992255728839</v>
       </c>
       <c r="F22">
-        <v>1.085159622010472</v>
+        <v>1.046983140463771</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.06087651912338</v>
+        <v>1.061845409831189</v>
       </c>
       <c r="J22">
-        <v>1.073256568573227</v>
+        <v>1.049409072303952</v>
       </c>
       <c r="K22">
-        <v>1.074356365649916</v>
+        <v>1.054915086154723</v>
       </c>
       <c r="L22">
-        <v>1.083302065610784</v>
+        <v>1.054742564093827</v>
       </c>
       <c r="M22">
-        <v>1.08868824665094</v>
+        <v>1.061677977124287</v>
       </c>
       <c r="N22">
-        <v>1.027853769955795</v>
+        <v>1.018589270453224</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.067071933647297</v>
+        <v>1.02186877605103</v>
       </c>
       <c r="D23">
-        <v>1.071114538622919</v>
+        <v>1.041944866991406</v>
       </c>
       <c r="E23">
-        <v>1.08015623413491</v>
+        <v>1.042058281742793</v>
       </c>
       <c r="F23">
-        <v>1.085554794325467</v>
+        <v>1.049088554233173</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061028835606301</v>
+        <v>1.062862714844611</v>
       </c>
       <c r="J23">
-        <v>1.073552168343799</v>
+        <v>1.051042446574439</v>
       </c>
       <c r="K23">
-        <v>1.074627137182248</v>
+        <v>1.056434136327427</v>
       </c>
       <c r="L23">
-        <v>1.083637300935868</v>
+        <v>1.056545579444977</v>
       </c>
       <c r="M23">
-        <v>1.089017309823656</v>
+        <v>1.063454710819774</v>
       </c>
       <c r="N23">
-        <v>1.027957702259092</v>
+        <v>1.019176208914754</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068737671472664</v>
+        <v>1.03093810689556</v>
       </c>
       <c r="D24">
-        <v>1.072444275793254</v>
+        <v>1.049030623313543</v>
       </c>
       <c r="E24">
-        <v>1.081738877887168</v>
+        <v>1.05025591394594</v>
       </c>
       <c r="F24">
-        <v>1.087111478311893</v>
+        <v>1.057170477373355</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061625855375951</v>
+        <v>1.066740812115058</v>
       </c>
       <c r="J24">
-        <v>1.074714872275173</v>
+        <v>1.057295118351704</v>
       </c>
       <c r="K24">
-        <v>1.075691899025677</v>
+        <v>1.062248144260124</v>
       </c>
       <c r="L24">
-        <v>1.084956720631951</v>
+        <v>1.063454439707907</v>
       </c>
       <c r="M24">
-        <v>1.090312360842996</v>
+        <v>1.070262861736035</v>
       </c>
       <c r="N24">
-        <v>1.028365979865629</v>
+        <v>1.021421816817097</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070671266246804</v>
+        <v>1.040990548731688</v>
       </c>
       <c r="D25">
-        <v>1.073987770275085</v>
+        <v>1.056903379799209</v>
       </c>
       <c r="E25">
-        <v>1.083577495431351</v>
+        <v>1.059370481267207</v>
       </c>
       <c r="F25">
-        <v>1.088919848744567</v>
+        <v>1.066157370152036</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062313209250466</v>
+        <v>1.07099781371506</v>
       </c>
       <c r="J25">
-        <v>1.076061970734441</v>
+        <v>1.064213004172915</v>
       </c>
       <c r="K25">
-        <v>1.076924931986327</v>
+        <v>1.068678195899993</v>
       </c>
       <c r="L25">
-        <v>1.086487074409189</v>
+        <v>1.071112109248391</v>
       </c>
       <c r="M25">
-        <v>1.091814290324339</v>
+        <v>1.077808693102559</v>
       </c>
       <c r="N25">
-        <v>1.028837909218664</v>
+        <v>1.023903181660793</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04866854869682</v>
+        <v>1.000873019510168</v>
       </c>
       <c r="D2">
-        <v>1.062928965121077</v>
+        <v>1.025222341434723</v>
       </c>
       <c r="E2">
-        <v>1.06635259974204</v>
+        <v>1.009042662180819</v>
       </c>
       <c r="F2">
-        <v>1.073042186323391</v>
+        <v>1.02930865671392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.074214427715445</v>
+        <v>1.049317768619977</v>
       </c>
       <c r="J2">
-        <v>1.069485023140628</v>
+        <v>1.023027650031594</v>
       </c>
       <c r="K2">
-        <v>1.073576062123186</v>
+        <v>1.036341125906068</v>
       </c>
       <c r="L2">
-        <v>1.076958917101204</v>
+        <v>1.020377439611246</v>
       </c>
       <c r="M2">
-        <v>1.083569751702906</v>
+        <v>1.040374234879925</v>
       </c>
       <c r="N2">
-        <v>1.025791079394073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011574417140805</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040525889215234</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036766580913663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054064424433049</v>
+        <v>1.004677455124089</v>
       </c>
       <c r="D3">
-        <v>1.067169542731024</v>
+        <v>1.027766621751197</v>
       </c>
       <c r="E3">
-        <v>1.071270298231711</v>
+        <v>1.012346708573609</v>
       </c>
       <c r="F3">
-        <v>1.077891516984695</v>
+        <v>1.031995181681205</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.076454024674596</v>
+        <v>1.050116249705128</v>
       </c>
       <c r="J3">
-        <v>1.073182401237559</v>
+        <v>1.025041415116288</v>
       </c>
       <c r="K3">
-        <v>1.077009485994848</v>
+        <v>1.038056134924415</v>
       </c>
       <c r="L3">
-        <v>1.081065784696829</v>
+        <v>1.022824011239622</v>
       </c>
       <c r="M3">
-        <v>1.087616096135249</v>
+        <v>1.042234412751393</v>
       </c>
       <c r="N3">
-        <v>1.027113020825249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012253984341701</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041998093725665</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037976576541667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057478475877331</v>
+        <v>1.007095495843501</v>
       </c>
       <c r="D4">
-        <v>1.069855015291662</v>
+        <v>1.029385394930694</v>
       </c>
       <c r="E4">
-        <v>1.074386539071383</v>
+        <v>1.014452227682849</v>
       </c>
       <c r="F4">
-        <v>1.080964472903812</v>
+        <v>1.033708599482857</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.077861110729449</v>
+        <v>1.05060987183329</v>
       </c>
       <c r="J4">
-        <v>1.075518001586542</v>
+        <v>1.026319423289307</v>
       </c>
       <c r="K4">
-        <v>1.079177575153052</v>
+        <v>1.039141642575174</v>
       </c>
       <c r="L4">
-        <v>1.083663015285375</v>
+        <v>1.024379300939738</v>
       </c>
       <c r="M4">
-        <v>1.090174890106391</v>
+        <v>1.0434165261496</v>
       </c>
       <c r="N4">
-        <v>1.027947027083321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012685242171811</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042933654679619</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038745024360221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058895952185002</v>
+        <v>1.008104597984497</v>
       </c>
       <c r="D5">
-        <v>1.070970516867535</v>
+        <v>1.030062909817439</v>
       </c>
       <c r="E5">
-        <v>1.075681464591582</v>
+        <v>1.015332538677648</v>
       </c>
       <c r="F5">
-        <v>1.082241415618816</v>
+        <v>1.034425557998853</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.078442895867459</v>
+        <v>1.050813681870486</v>
       </c>
       <c r="J5">
-        <v>1.076486772832272</v>
+        <v>1.026853487409507</v>
       </c>
       <c r="K5">
-        <v>1.080076671692936</v>
+        <v>1.039595697496703</v>
       </c>
       <c r="L5">
-        <v>1.084741018711776</v>
+        <v>1.025029318686031</v>
       </c>
       <c r="M5">
-        <v>1.09123689772578</v>
+        <v>1.043910876416623</v>
       </c>
       <c r="N5">
-        <v>1.02829269457478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012865820754862</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043324898350416</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039073260067922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05913293040211</v>
+        <v>1.008276732004496</v>
       </c>
       <c r="D6">
-        <v>1.071157039279178</v>
+        <v>1.030180457140388</v>
       </c>
       <c r="E6">
-        <v>1.075898017726986</v>
+        <v>1.015483183416337</v>
       </c>
       <c r="F6">
-        <v>1.082454961526974</v>
+        <v>1.034548588828737</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.078540017175613</v>
+        <v>1.050849702811127</v>
       </c>
       <c r="J6">
-        <v>1.076648678585025</v>
+        <v>1.026946028486271</v>
       </c>
       <c r="K6">
-        <v>1.080226921457179</v>
+        <v>1.039675723500805</v>
       </c>
       <c r="L6">
-        <v>1.084921221798719</v>
+        <v>1.025141319769506</v>
       </c>
       <c r="M6">
-        <v>1.091414424298697</v>
+        <v>1.043996542971922</v>
       </c>
       <c r="N6">
-        <v>1.028350448215598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012897558147767</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043392697417652</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039138600327847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,81 +698,105 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057497485211498</v>
+        <v>1.007117840034327</v>
       </c>
       <c r="D7">
-        <v>1.06986997293578</v>
+        <v>1.029405604042302</v>
       </c>
       <c r="E7">
-        <v>1.074403900632185</v>
+        <v>1.014472797602686</v>
       </c>
       <c r="F7">
-        <v>1.080981593353949</v>
+        <v>1.033726193420998</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077868922484973</v>
+        <v>1.050618277634596</v>
       </c>
       <c r="J7">
-        <v>1.07553099725369</v>
+        <v>1.026335182020265</v>
       </c>
       <c r="K7">
-        <v>1.079189636938612</v>
+        <v>1.039158737830069</v>
       </c>
       <c r="L7">
-        <v>1.083677473439866</v>
+        <v>1.024396687383134</v>
       </c>
       <c r="M7">
-        <v>1.090189133897697</v>
+        <v>1.043431053734335</v>
       </c>
       <c r="N7">
-        <v>1.027951665137121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012691789616458</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042945152250151</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038777250904733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050508609368234</v>
+        <v>1.002178915084565</v>
       </c>
       <c r="D8">
-        <v>1.06437451948957</v>
+        <v>1.026101616014284</v>
       </c>
       <c r="E8">
-        <v>1.068028575704924</v>
+        <v>1.010176991148059</v>
       </c>
       <c r="F8">
-        <v>1.07469485081148</v>
+        <v>1.030231635740092</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074980222640081</v>
+        <v>1.049599353040122</v>
       </c>
       <c r="J8">
-        <v>1.070746647698566</v>
+        <v>1.02372409990195</v>
       </c>
       <c r="K8">
-        <v>1.074747777503525</v>
+        <v>1.036939261025487</v>
       </c>
       <c r="L8">
-        <v>1.078359647268733</v>
+        <v>1.021220850898582</v>
       </c>
       <c r="M8">
-        <v>1.084949870738591</v>
+        <v>1.041017098214522</v>
       </c>
       <c r="N8">
-        <v>1.02624236719171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011811041216012</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041034672244104</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037212469339976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037564240950775</v>
+        <v>0.9931125627208482</v>
       </c>
       <c r="D9">
-        <v>1.05421786330756</v>
+        <v>1.0200439240689</v>
       </c>
       <c r="E9">
-        <v>1.056260463163274</v>
+        <v>1.002334591735224</v>
       </c>
       <c r="F9">
-        <v>1.063090819082147</v>
+        <v>1.023863050274503</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.069552248758495</v>
+        <v>1.04761530035913</v>
       </c>
       <c r="J9">
-        <v>1.06185684480394</v>
+        <v>1.018910900635777</v>
       </c>
       <c r="K9">
-        <v>1.066488539984708</v>
+        <v>1.03281996266716</v>
       </c>
       <c r="L9">
-        <v>1.068502243295405</v>
+        <v>1.015389905036117</v>
       </c>
       <c r="M9">
-        <v>1.075236988052547</v>
+        <v>1.036580476840892</v>
       </c>
       <c r="N9">
-        <v>1.023058508643742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010185345534186</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037523377923449</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034296650827482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028457488903589</v>
+        <v>0.9868627981338529</v>
       </c>
       <c r="D10">
-        <v>1.047090886523406</v>
+        <v>1.015902643300583</v>
       </c>
       <c r="E10">
-        <v>1.048011330167914</v>
+        <v>0.9969675601378205</v>
       </c>
       <c r="F10">
-        <v>1.054957482769349</v>
+        <v>1.019588541738643</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.065683333688338</v>
+        <v>1.046194584141044</v>
       </c>
       <c r="J10">
-        <v>1.055585824254059</v>
+        <v>1.015607514083966</v>
       </c>
       <c r="K10">
-        <v>1.06065894943034</v>
+        <v>1.029990586634818</v>
       </c>
       <c r="L10">
-        <v>1.06156465285091</v>
+        <v>1.011391782929552</v>
       </c>
       <c r="M10">
-        <v>1.068400629445172</v>
+        <v>1.033612902300943</v>
       </c>
       <c r="N10">
-        <v>1.020808157906828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009075825035586</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035226370174205</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032312963197635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024387614736644</v>
+        <v>0.9844798136566849</v>
       </c>
       <c r="D11">
-        <v>1.043911111293288</v>
+        <v>1.014482350434238</v>
       </c>
       <c r="E11">
-        <v>1.044332613483459</v>
+        <v>0.9949794511103455</v>
       </c>
       <c r="F11">
-        <v>1.051330686956065</v>
+        <v>1.018595326209203</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.063942978603068</v>
+        <v>1.045757128740666</v>
       </c>
       <c r="J11">
-        <v>1.052779892472909</v>
+        <v>1.014512813926101</v>
       </c>
       <c r="K11">
-        <v>1.058049863470386</v>
+        <v>1.029136222989763</v>
       </c>
       <c r="L11">
-        <v>1.05846425970736</v>
+        <v>1.009996672796672</v>
       </c>
       <c r="M11">
-        <v>1.065345427003855</v>
+        <v>1.033174880314401</v>
       </c>
       <c r="N11">
-        <v>1.019800413722697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008757680023367</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03531752935421</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031741870000276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022855613013443</v>
+        <v>0.9837081129502667</v>
       </c>
       <c r="D12">
-        <v>1.042715048918956</v>
+        <v>1.0140768792969</v>
       </c>
       <c r="E12">
-        <v>1.042949105155039</v>
+        <v>0.9943554131790563</v>
       </c>
       <c r="F12">
-        <v>1.049966756297853</v>
+        <v>1.018527897548903</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.063286220920135</v>
+        <v>1.045654668892871</v>
       </c>
       <c r="J12">
-        <v>1.051723220170925</v>
+        <v>1.014218345158589</v>
       </c>
       <c r="K12">
-        <v>1.057067231790175</v>
+        <v>1.028939268045419</v>
       </c>
       <c r="L12">
-        <v>1.057297267393123</v>
+        <v>1.009591559484585</v>
       </c>
       <c r="M12">
-        <v>1.064195442982113</v>
+        <v>1.033308537407022</v>
       </c>
       <c r="N12">
-        <v>1.0194208045766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008697255576756</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.035750668421567</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03160261533997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023185171048324</v>
+        <v>0.9841397933475519</v>
       </c>
       <c r="D13">
-        <v>1.042972299694124</v>
+        <v>1.014443113325035</v>
       </c>
       <c r="E13">
-        <v>1.043246662197207</v>
+        <v>0.9947519609765881</v>
       </c>
       <c r="F13">
-        <v>1.050260100233559</v>
+        <v>1.01919287671003</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.063427573374767</v>
+        <v>1.045817893493115</v>
       </c>
       <c r="J13">
-        <v>1.051950546642042</v>
+        <v>1.014535751998039</v>
       </c>
       <c r="K13">
-        <v>1.057278633384898</v>
+        <v>1.029255617355731</v>
       </c>
       <c r="L13">
-        <v>1.057548301743647</v>
+        <v>1.009936026098645</v>
       </c>
       <c r="M13">
-        <v>1.064442818611756</v>
+        <v>1.033918551466432</v>
       </c>
       <c r="N13">
-        <v>1.019502476090927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008838033239311</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036510386800072</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031823782946963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024261400087737</v>
+        <v>0.9849865915894794</v>
       </c>
       <c r="D14">
-        <v>1.043812554695421</v>
+        <v>1.015048740963417</v>
       </c>
       <c r="E14">
-        <v>1.044218606687974</v>
+        <v>0.9954913482252566</v>
       </c>
       <c r="F14">
-        <v>1.051218292351475</v>
+        <v>1.019988591506472</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.063888904416393</v>
+        <v>1.04605200408836</v>
       </c>
       <c r="J14">
-        <v>1.052692846855982</v>
+        <v>1.015034132185115</v>
       </c>
       <c r="K14">
-        <v>1.057968918834503</v>
+        <v>1.029708937031035</v>
       </c>
       <c r="L14">
-        <v>1.058368114670759</v>
+        <v>1.01051587617977</v>
       </c>
       <c r="M14">
-        <v>1.065250683226232</v>
+        <v>1.034559634857604</v>
       </c>
       <c r="N14">
-        <v>1.01976914469462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009027412621927</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037190831851496</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032145728133474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024921775260125</v>
+        <v>0.9854602660024688</v>
       </c>
       <c r="D15">
-        <v>1.044328255057092</v>
+        <v>1.015372742631866</v>
       </c>
       <c r="E15">
-        <v>1.044815159838228</v>
+        <v>0.9958998105686662</v>
       </c>
       <c r="F15">
-        <v>1.051806411668298</v>
+        <v>1.020358451074741</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.064171762517528</v>
+        <v>1.046171193865347</v>
       </c>
       <c r="J15">
-        <v>1.053148265422493</v>
+        <v>1.015295843951094</v>
       </c>
       <c r="K15">
-        <v>1.058392413820386</v>
+        <v>1.029940109408518</v>
       </c>
       <c r="L15">
-        <v>1.05887116417894</v>
+        <v>1.010827106705966</v>
       </c>
       <c r="M15">
-        <v>1.065746401048093</v>
+        <v>1.0348365311493</v>
       </c>
       <c r="N15">
-        <v>1.019932738503015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009120274427223</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037447293452221</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032315071058928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028724821563728</v>
+        <v>0.9880286636279644</v>
       </c>
       <c r="D16">
-        <v>1.04729987010263</v>
+        <v>1.01706775163292</v>
       </c>
       <c r="E16">
-        <v>1.048253138941812</v>
+        <v>0.9980962099461418</v>
       </c>
       <c r="F16">
-        <v>1.055195885271622</v>
+        <v>1.022078998551002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.065797419425782</v>
+        <v>1.046765176133434</v>
       </c>
       <c r="J16">
-        <v>1.055770068532071</v>
+        <v>1.01664710050767</v>
       </c>
       <c r="K16">
-        <v>1.060830255408741</v>
+        <v>1.031099738601104</v>
       </c>
       <c r="L16">
-        <v>1.061768311021101</v>
+        <v>1.012463144099459</v>
       </c>
       <c r="M16">
-        <v>1.068601318592513</v>
+        <v>1.036025191448118</v>
       </c>
       <c r="N16">
-        <v>1.020874312931229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009567859228062</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038348021736849</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033138154056022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031075629680574</v>
+        <v>0.989557249939397</v>
       </c>
       <c r="D17">
-        <v>1.04913819596623</v>
+        <v>1.018051857585812</v>
       </c>
       <c r="E17">
-        <v>1.050380404146177</v>
+        <v>0.9993968677154704</v>
       </c>
       <c r="F17">
-        <v>1.057293217449876</v>
+        <v>1.022977705025929</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.066799361718953</v>
+        <v>1.047094827610241</v>
       </c>
       <c r="J17">
-        <v>1.057389857198884</v>
+        <v>1.017422728097565</v>
       </c>
       <c r="K17">
-        <v>1.062336222034235</v>
+        <v>1.031750606273381</v>
       </c>
       <c r="L17">
-        <v>1.063559207918102</v>
+        <v>1.013415480296046</v>
       </c>
       <c r="M17">
-        <v>1.070366102013067</v>
+        <v>1.036594499535639</v>
       </c>
       <c r="N17">
-        <v>1.021455823690766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009812029746336</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038668749411074</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033600941059751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032434691962438</v>
+        <v>0.9903223893652275</v>
       </c>
       <c r="D18">
-        <v>1.050201477308101</v>
+        <v>1.018493072091355</v>
       </c>
       <c r="E18">
-        <v>1.05161097204082</v>
+        <v>1.000031931307809</v>
       </c>
       <c r="F18">
-        <v>1.058506495904063</v>
+        <v>1.023202080286636</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.067377535796747</v>
+        <v>1.047218821128463</v>
       </c>
       <c r="J18">
-        <v>1.058325975844226</v>
+        <v>1.017756057429907</v>
       </c>
       <c r="K18">
-        <v>1.063206495757475</v>
+        <v>1.032000047610118</v>
       </c>
       <c r="L18">
-        <v>1.064594573223078</v>
+        <v>1.013850113598545</v>
       </c>
       <c r="M18">
-        <v>1.071386365321054</v>
+        <v>1.036631983585557</v>
       </c>
       <c r="N18">
-        <v>1.021791813620215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009895384442632</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038460207181775</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033765627776332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032896076868298</v>
+        <v>0.9903919154947265</v>
       </c>
       <c r="D19">
-        <v>1.0505625303071</v>
+        <v>1.018441066405106</v>
       </c>
       <c r="E19">
-        <v>1.052028858513492</v>
+        <v>1.000059311677615</v>
       </c>
       <c r="F19">
-        <v>1.058918515249621</v>
+        <v>1.022805434152828</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.067573634971658</v>
+        <v>1.047158414030103</v>
       </c>
       <c r="J19">
-        <v>1.058643720265419</v>
+        <v>1.017686102060017</v>
       </c>
       <c r="K19">
-        <v>1.06350187937218</v>
+        <v>1.03188601966186</v>
       </c>
       <c r="L19">
-        <v>1.06494606553583</v>
+        <v>1.013812483470591</v>
       </c>
       <c r="M19">
-        <v>1.071732729678778</v>
+        <v>1.036179297079992</v>
       </c>
       <c r="N19">
-        <v>1.021905843660634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009835935134388</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037775975358415</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033691423036596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030824672996655</v>
+        <v>0.9885053126453035</v>
       </c>
       <c r="D20">
-        <v>1.048941896203955</v>
+        <v>1.017002835091976</v>
       </c>
       <c r="E20">
-        <v>1.050153233994628</v>
+        <v>0.998378771928835</v>
       </c>
       <c r="F20">
-        <v>1.057069241076342</v>
+        <v>1.02071726152527</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.066692512139165</v>
+        <v>1.04658207227951</v>
       </c>
       <c r="J20">
-        <v>1.057216972399474</v>
+        <v>1.016486641041284</v>
       </c>
       <c r="K20">
-        <v>1.062175492372335</v>
+        <v>1.030753156758142</v>
       </c>
       <c r="L20">
-        <v>1.06336802300124</v>
+        <v>1.012450188707082</v>
       </c>
       <c r="M20">
-        <v>1.070177705295657</v>
+        <v>1.034405348864767</v>
       </c>
       <c r="N20">
-        <v>1.021393765568696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009374966219549</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035842920030552</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032894376675331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023945047563606</v>
+        <v>0.983734777685934</v>
       </c>
       <c r="D21">
-        <v>1.04356554062223</v>
+        <v>1.013814407288779</v>
       </c>
       <c r="E21">
-        <v>1.043932873112938</v>
+        <v>0.9942835448212982</v>
       </c>
       <c r="F21">
-        <v>1.05093660024004</v>
+        <v>1.017344094126028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.063753343098272</v>
+        <v>1.045449236516617</v>
       </c>
       <c r="J21">
-        <v>1.052474663068623</v>
+        <v>1.013928641039844</v>
       </c>
       <c r="K21">
-        <v>1.057766026048417</v>
+        <v>1.028538704174758</v>
       </c>
       <c r="L21">
-        <v>1.058127131949907</v>
+        <v>1.009374032591594</v>
       </c>
       <c r="M21">
-        <v>1.065013212686625</v>
+        <v>1.032004162613794</v>
       </c>
       <c r="N21">
-        <v>1.019690765787729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008506411780836</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033901507767499</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031331908891795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019501583834708</v>
+        <v>0.9806899621987107</v>
       </c>
       <c r="D22">
-        <v>1.04009822027521</v>
+        <v>1.011788534271791</v>
       </c>
       <c r="E22">
-        <v>1.03992255728839</v>
+        <v>0.991679314612067</v>
       </c>
       <c r="F22">
-        <v>1.046983140463771</v>
+        <v>1.01523835203483</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.061845409831189</v>
+        <v>1.044716976177674</v>
       </c>
       <c r="J22">
-        <v>1.049409072303952</v>
+        <v>1.012301727739948</v>
       </c>
       <c r="K22">
-        <v>1.054915086154723</v>
+        <v>1.027130020306749</v>
       </c>
       <c r="L22">
-        <v>1.054742564093827</v>
+        <v>1.007417427866523</v>
       </c>
       <c r="M22">
-        <v>1.061677977124287</v>
+        <v>1.030513860165962</v>
       </c>
       <c r="N22">
-        <v>1.018589270453224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007955335928523</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032722021383196</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030322330935839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02186877605103</v>
+        <v>0.9823020317017244</v>
       </c>
       <c r="D23">
-        <v>1.041944866991406</v>
+        <v>1.012856550129172</v>
       </c>
       <c r="E23">
-        <v>1.042058281742793</v>
+        <v>0.9930563434138888</v>
       </c>
       <c r="F23">
-        <v>1.049088554233173</v>
+        <v>1.016351045457827</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.062862714844611</v>
+        <v>1.045103039057775</v>
       </c>
       <c r="J23">
-        <v>1.051042446574439</v>
+        <v>1.013159812947486</v>
       </c>
       <c r="K23">
-        <v>1.056434136327427</v>
+        <v>1.027870532238542</v>
       </c>
       <c r="L23">
-        <v>1.056545579444977</v>
+        <v>1.008450588426143</v>
       </c>
       <c r="M23">
-        <v>1.063454710819774</v>
+        <v>1.031299921610242</v>
       </c>
       <c r="N23">
-        <v>1.019176208914754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008244634162482</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03334414284593</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030836226017419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03093810689556</v>
+        <v>0.9885330287231112</v>
       </c>
       <c r="D24">
-        <v>1.049030623313543</v>
+        <v>1.016999276301757</v>
       </c>
       <c r="E24">
-        <v>1.05025591394594</v>
+        <v>0.9983959812520253</v>
       </c>
       <c r="F24">
-        <v>1.057170477373355</v>
+        <v>1.020671783170776</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.066740812115058</v>
+        <v>1.046572050834446</v>
       </c>
       <c r="J24">
-        <v>1.057295118351704</v>
+        <v>1.016479749441223</v>
       </c>
       <c r="K24">
-        <v>1.062248144260124</v>
+        <v>1.030734300296495</v>
       </c>
       <c r="L24">
-        <v>1.063454439707907</v>
+        <v>1.012451323932982</v>
       </c>
       <c r="M24">
-        <v>1.070262861736035</v>
+        <v>1.034345350291801</v>
       </c>
       <c r="N24">
-        <v>1.021421816817097</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009366203199695</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035754415576689</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032853529150923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040990548731688</v>
+        <v>0.9955138255077296</v>
       </c>
       <c r="D25">
-        <v>1.056903379799209</v>
+        <v>1.02165385791561</v>
       </c>
       <c r="E25">
-        <v>1.059370481267207</v>
+        <v>1.00440794127861</v>
       </c>
       <c r="F25">
-        <v>1.066157370152036</v>
+        <v>1.025546231780518</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.07099781371506</v>
+        <v>1.048158592342665</v>
       </c>
       <c r="J25">
-        <v>1.064213004172915</v>
+        <v>1.020193116317883</v>
       </c>
       <c r="K25">
-        <v>1.068678195899993</v>
+        <v>1.033925074478016</v>
       </c>
       <c r="L25">
-        <v>1.071112109248391</v>
+        <v>1.016938212857718</v>
       </c>
       <c r="M25">
-        <v>1.077808693102559</v>
+        <v>1.037760508832302</v>
       </c>
       <c r="N25">
-        <v>1.023903181660793</v>
+        <v>1.010620558396309</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038457297392595</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035106711918468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000873019510168</v>
+        <v>1.000787979806939</v>
       </c>
       <c r="D2">
-        <v>1.025222341434723</v>
+        <v>1.024689087003484</v>
       </c>
       <c r="E2">
-        <v>1.009042662180819</v>
+        <v>1.008958194670124</v>
       </c>
       <c r="F2">
-        <v>1.02930865671392</v>
+        <v>1.028975434424486</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049317768619977</v>
+        <v>1.049047031692694</v>
       </c>
       <c r="J2">
-        <v>1.023027650031594</v>
+        <v>1.022945148050319</v>
       </c>
       <c r="K2">
-        <v>1.036341125906068</v>
+        <v>1.035814853995049</v>
       </c>
       <c r="L2">
-        <v>1.020377439611246</v>
+        <v>1.020294122587401</v>
       </c>
       <c r="M2">
-        <v>1.040374234879925</v>
+        <v>1.04004533153868</v>
       </c>
       <c r="N2">
-        <v>1.011574417140805</v>
+        <v>1.013280502244279</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040525889215234</v>
+        <v>1.040265584235307</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036766580913663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036403254436981</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021622895752592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004677455124089</v>
+        <v>1.004443735193313</v>
       </c>
       <c r="D3">
-        <v>1.027766621751197</v>
+        <v>1.027052966403903</v>
       </c>
       <c r="E3">
-        <v>1.012346708573609</v>
+        <v>1.01211429728694</v>
       </c>
       <c r="F3">
-        <v>1.031995181681205</v>
+        <v>1.031529462752527</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I3">
-        <v>1.050116249705128</v>
+        <v>1.049753543861572</v>
       </c>
       <c r="J3">
-        <v>1.025041415116288</v>
+        <v>1.024813988209281</v>
       </c>
       <c r="K3">
-        <v>1.038056134924415</v>
+        <v>1.037351016350545</v>
       </c>
       <c r="L3">
-        <v>1.022824011239622</v>
+        <v>1.022594484852013</v>
       </c>
       <c r="M3">
-        <v>1.042234412751393</v>
+        <v>1.041774206691462</v>
       </c>
       <c r="N3">
-        <v>1.012253984341701</v>
+        <v>1.013781362976393</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041998093725665</v>
+        <v>1.041633872148519</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037976576541667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037486511448253</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021930761667112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007095495843501</v>
+        <v>1.006768350332782</v>
       </c>
       <c r="D4">
-        <v>1.029385394930694</v>
+        <v>1.028557780345637</v>
       </c>
       <c r="E4">
-        <v>1.014452227682849</v>
+        <v>1.014126687971081</v>
       </c>
       <c r="F4">
-        <v>1.033708599482857</v>
+        <v>1.033159315356537</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05060987183329</v>
+        <v>1.050188959168969</v>
       </c>
       <c r="J4">
-        <v>1.026319423289307</v>
+        <v>1.026000491458714</v>
       </c>
       <c r="K4">
-        <v>1.039141642575174</v>
+        <v>1.038323335395202</v>
       </c>
       <c r="L4">
-        <v>1.024379300939738</v>
+        <v>1.024057554463859</v>
       </c>
       <c r="M4">
-        <v>1.0434165261496</v>
+        <v>1.042873353846246</v>
       </c>
       <c r="N4">
-        <v>1.012685242171811</v>
+        <v>1.014099390154713</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042933654679619</v>
+        <v>1.04250377153805</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038745024360221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03817500594392</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022123145225333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008104597984497</v>
+        <v>1.007738702176571</v>
       </c>
       <c r="D5">
-        <v>1.030062909817439</v>
+        <v>1.029187966875217</v>
       </c>
       <c r="E5">
-        <v>1.015332538677648</v>
+        <v>1.014968335978452</v>
       </c>
       <c r="F5">
-        <v>1.034425557998853</v>
+        <v>1.03384158774514</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050813681870486</v>
+        <v>1.050368569156635</v>
       </c>
       <c r="J5">
-        <v>1.026853487409507</v>
+        <v>1.026496504216965</v>
       </c>
       <c r="K5">
-        <v>1.039595697496703</v>
+        <v>1.038730334160909</v>
       </c>
       <c r="L5">
-        <v>1.025029318686031</v>
+        <v>1.024669244957947</v>
       </c>
       <c r="M5">
-        <v>1.043910876416623</v>
+        <v>1.043333231759416</v>
       </c>
       <c r="N5">
-        <v>1.012865820754862</v>
+        <v>1.014232626980802</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043324898350416</v>
+        <v>1.042867732973117</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039073260067922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038470678769679</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022203460537279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008276732004496</v>
+        <v>1.007904232753889</v>
       </c>
       <c r="D6">
-        <v>1.030180457140388</v>
+        <v>1.029297531895087</v>
       </c>
       <c r="E6">
-        <v>1.015483183416337</v>
+        <v>1.01511239041028</v>
       </c>
       <c r="F6">
-        <v>1.034548588828737</v>
+        <v>1.033958757183339</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050849702811127</v>
+        <v>1.050400507159296</v>
       </c>
       <c r="J6">
-        <v>1.026946028486271</v>
+        <v>1.026582556131536</v>
       </c>
       <c r="K6">
-        <v>1.039675723500805</v>
+        <v>1.038802421298711</v>
       </c>
       <c r="L6">
-        <v>1.025141319769506</v>
+        <v>1.024774710899043</v>
       </c>
       <c r="M6">
-        <v>1.043996542971922</v>
+        <v>1.043413071303368</v>
       </c>
       <c r="N6">
-        <v>1.012897558147767</v>
+        <v>1.014256081655017</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043392697417652</v>
+        <v>1.042930920409653</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039138600327847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038531273461601</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022218125015778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007117840034327</v>
+        <v>1.006797756441602</v>
       </c>
       <c r="D7">
-        <v>1.029405604042302</v>
+        <v>1.02858234429496</v>
       </c>
       <c r="E7">
-        <v>1.014472797602686</v>
+        <v>1.014154283828851</v>
       </c>
       <c r="F7">
-        <v>1.033726193420998</v>
+        <v>1.03318076697666</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050618277634596</v>
+        <v>1.05019957799488</v>
       </c>
       <c r="J7">
-        <v>1.026335182020265</v>
+        <v>1.026023131309517</v>
       </c>
       <c r="K7">
-        <v>1.039158737830069</v>
+        <v>1.03834473292911</v>
       </c>
       <c r="L7">
-        <v>1.024396687383134</v>
+        <v>1.02408188351731</v>
       </c>
       <c r="M7">
-        <v>1.043431053734335</v>
+        <v>1.042891693885273</v>
       </c>
       <c r="N7">
-        <v>1.012691789616458</v>
+        <v>1.014132380469497</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042945152250151</v>
+        <v>1.042518286408927</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038777250904733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038212271438169</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022129189383431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002178915084565</v>
+        <v>1.002067010499168</v>
       </c>
       <c r="D8">
-        <v>1.026101616014284</v>
+        <v>1.025522533805862</v>
       </c>
       <c r="E8">
-        <v>1.010176991148059</v>
+        <v>1.010065795772511</v>
       </c>
       <c r="F8">
-        <v>1.030231635740092</v>
+        <v>1.029866818905504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049599353040122</v>
+        <v>1.049305245823897</v>
       </c>
       <c r="J8">
-        <v>1.02372409990195</v>
+        <v>1.0236154226161</v>
       </c>
       <c r="K8">
-        <v>1.036939261025487</v>
+        <v>1.036367537440463</v>
       </c>
       <c r="L8">
-        <v>1.021220850898582</v>
+        <v>1.021111124107596</v>
       </c>
       <c r="M8">
-        <v>1.041017098214522</v>
+        <v>1.0406568697956</v>
       </c>
       <c r="N8">
-        <v>1.011811041216012</v>
+        <v>1.013540377934993</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041034672244104</v>
+        <v>1.040749575758123</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037212469339976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036819268422552</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021737372860509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9931125627208482</v>
+        <v>0.9933654739232566</v>
       </c>
       <c r="D9">
-        <v>1.0200439240689</v>
+        <v>1.019901268159406</v>
       </c>
       <c r="E9">
-        <v>1.002334591735224</v>
+        <v>1.002585178878217</v>
       </c>
       <c r="F9">
-        <v>1.023863050274503</v>
+        <v>1.02381999914541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04761530035913</v>
+        <v>1.04754301813285</v>
       </c>
       <c r="J9">
-        <v>1.018910900635777</v>
+        <v>1.019154709522587</v>
       </c>
       <c r="K9">
-        <v>1.03281996266716</v>
+        <v>1.032679506952292</v>
       </c>
       <c r="L9">
-        <v>1.015389905036117</v>
+        <v>1.015636452142366</v>
       </c>
       <c r="M9">
-        <v>1.036580476840892</v>
+        <v>1.036538083308512</v>
       </c>
       <c r="N9">
-        <v>1.010185345534186</v>
+        <v>1.01235371030068</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037523377923449</v>
+        <v>1.037489826144874</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034296650827482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034208115031986</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020983151348664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9868627981338529</v>
+        <v>0.9874065817994871</v>
       </c>
       <c r="D10">
-        <v>1.015902643300583</v>
+        <v>1.016085613158987</v>
       </c>
       <c r="E10">
-        <v>0.9969675601378205</v>
+        <v>0.997505180945843</v>
       </c>
       <c r="F10">
-        <v>1.019588541738643</v>
+        <v>1.019789413439216</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046194584141044</v>
+        <v>1.046287152105869</v>
       </c>
       <c r="J10">
-        <v>1.015607514083966</v>
+        <v>1.016128915589434</v>
       </c>
       <c r="K10">
-        <v>1.029990586634818</v>
+        <v>1.030170386133061</v>
       </c>
       <c r="L10">
-        <v>1.011391782929552</v>
+        <v>1.01191962669672</v>
       </c>
       <c r="M10">
-        <v>1.033612902300943</v>
+        <v>1.033810325978808</v>
       </c>
       <c r="N10">
-        <v>1.009075825035586</v>
+        <v>1.011664674101671</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035226370174205</v>
+        <v>1.035382609099367</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032312963197635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032452552734438</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020464581729536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9844798136566849</v>
+        <v>0.9851661391198648</v>
       </c>
       <c r="D11">
-        <v>1.014482350434238</v>
+        <v>1.014803851690711</v>
       </c>
       <c r="E11">
-        <v>0.9949794511103455</v>
+        <v>0.9956573312138979</v>
       </c>
       <c r="F11">
-        <v>1.018595326209203</v>
+        <v>1.018903872744845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045757128740666</v>
+        <v>1.045919679909475</v>
       </c>
       <c r="J11">
-        <v>1.014512813926101</v>
+        <v>1.015169315127277</v>
       </c>
       <c r="K11">
-        <v>1.029136222989763</v>
+        <v>1.02945188672037</v>
       </c>
       <c r="L11">
-        <v>1.009996672796672</v>
+        <v>1.01066161123426</v>
       </c>
       <c r="M11">
-        <v>1.033174880314401</v>
+        <v>1.033477883075193</v>
       </c>
       <c r="N11">
-        <v>1.008757680023367</v>
+        <v>1.011672325786432</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03531752935421</v>
+        <v>1.035557200957458</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031741870000276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031980735281499</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020352186335083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9837081129502667</v>
+        <v>0.9844384860400417</v>
       </c>
       <c r="D12">
-        <v>1.0140768792969</v>
+        <v>1.014439524518079</v>
       </c>
       <c r="E12">
-        <v>0.9943554131790563</v>
+        <v>0.9950765330616171</v>
       </c>
       <c r="F12">
-        <v>1.018527897548903</v>
+        <v>1.018868999413252</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045654668892871</v>
+        <v>1.045837980889291</v>
       </c>
       <c r="J12">
-        <v>1.014218345158589</v>
+        <v>1.014916357374726</v>
       </c>
       <c r="K12">
-        <v>1.028939268045419</v>
+        <v>1.029295217817687</v>
       </c>
       <c r="L12">
-        <v>1.009591559484585</v>
+        <v>1.010298670741087</v>
       </c>
       <c r="M12">
-        <v>1.033308537407022</v>
+        <v>1.033643412833886</v>
       </c>
       <c r="N12">
-        <v>1.008697255576756</v>
+        <v>1.011732846084793</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035750668421567</v>
+        <v>1.036015460713949</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03160261533997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031869966795158</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020343103338718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9841397933475519</v>
+        <v>0.9848292438664938</v>
       </c>
       <c r="D13">
-        <v>1.014443113325035</v>
+        <v>1.014766667301924</v>
       </c>
       <c r="E13">
-        <v>0.9947519609765881</v>
+        <v>0.9954327402971184</v>
       </c>
       <c r="F13">
-        <v>1.01919287671003</v>
+        <v>1.01950403989769</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045817893493115</v>
+        <v>1.045981455288129</v>
       </c>
       <c r="J13">
-        <v>1.014535751998039</v>
+        <v>1.015194803398214</v>
       </c>
       <c r="K13">
-        <v>1.029255617355731</v>
+        <v>1.029573222911637</v>
       </c>
       <c r="L13">
-        <v>1.009936026098645</v>
+        <v>1.010603638041772</v>
       </c>
       <c r="M13">
-        <v>1.033918551466432</v>
+        <v>1.034224063088956</v>
       </c>
       <c r="N13">
-        <v>1.008838033239311</v>
+        <v>1.011806962519971</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036510386800072</v>
+        <v>1.03675189956507</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031823782946963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03206377726883</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020418366074425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9849865915894794</v>
+        <v>0.9856100833885457</v>
       </c>
       <c r="D14">
-        <v>1.015048740963417</v>
+        <v>1.015309566336474</v>
       </c>
       <c r="E14">
-        <v>0.9954913482252566</v>
+        <v>0.99610716720357</v>
       </c>
       <c r="F14">
-        <v>1.019988591506472</v>
+        <v>1.020251334261675</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04605200408836</v>
+        <v>1.046183878329599</v>
       </c>
       <c r="J14">
-        <v>1.015034132185115</v>
+        <v>1.015630528653962</v>
       </c>
       <c r="K14">
-        <v>1.029708937031035</v>
+        <v>1.029965026897823</v>
       </c>
       <c r="L14">
-        <v>1.01051587617977</v>
+        <v>1.01111993774024</v>
       </c>
       <c r="M14">
-        <v>1.034559634857604</v>
+        <v>1.034817667131939</v>
       </c>
       <c r="N14">
-        <v>1.009027412621927</v>
+        <v>1.011866306804504</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037190831851496</v>
+        <v>1.037394783651513</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032145728133474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032342360881785</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020509389693718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9854602660024688</v>
+        <v>0.9860494643186272</v>
       </c>
       <c r="D15">
-        <v>1.015372742631866</v>
+        <v>1.015600774220427</v>
       </c>
       <c r="E15">
-        <v>0.9958998105686662</v>
+        <v>0.9964818541413507</v>
       </c>
       <c r="F15">
-        <v>1.020358451074741</v>
+        <v>1.020595820203762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046171193865347</v>
+        <v>1.046286499507718</v>
       </c>
       <c r="J15">
-        <v>1.015295843951094</v>
+        <v>1.015859662903256</v>
       </c>
       <c r="K15">
-        <v>1.029940109408518</v>
+        <v>1.030164032422534</v>
       </c>
       <c r="L15">
-        <v>1.010827106705966</v>
+        <v>1.011398125436518</v>
       </c>
       <c r="M15">
-        <v>1.0348365311493</v>
+        <v>1.035069677580464</v>
       </c>
       <c r="N15">
-        <v>1.009120274427223</v>
+        <v>1.011888871705822</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037447293452221</v>
+        <v>1.037631570322077</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032315071058928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032489527781252</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020552836310462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9880286636279644</v>
+        <v>0.9884491511888165</v>
       </c>
       <c r="D16">
-        <v>1.01706775163292</v>
+        <v>1.017130229473071</v>
       </c>
       <c r="E16">
-        <v>0.9980962099461418</v>
+        <v>0.9985119783955921</v>
       </c>
       <c r="F16">
-        <v>1.022078998551002</v>
+        <v>1.022188555527295</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046765176133434</v>
+        <v>1.046796787552264</v>
       </c>
       <c r="J16">
-        <v>1.01664710050767</v>
+        <v>1.01705039109737</v>
       </c>
       <c r="K16">
-        <v>1.031099738601104</v>
+        <v>1.03116114007215</v>
       </c>
       <c r="L16">
-        <v>1.012463144099459</v>
+        <v>1.012871394691129</v>
       </c>
       <c r="M16">
-        <v>1.036025191448118</v>
+        <v>1.036132884908142</v>
       </c>
       <c r="N16">
-        <v>1.009567859228062</v>
+        <v>1.011994760344354</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038348021736849</v>
+        <v>1.038433144130848</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033138154056022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033197996053896</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020758095648265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.989557249939397</v>
+        <v>0.9898915066864346</v>
       </c>
       <c r="D17">
-        <v>1.018051857585812</v>
+        <v>1.018025714626975</v>
       </c>
       <c r="E17">
-        <v>0.9993968677154704</v>
+        <v>0.9997275593374083</v>
       </c>
       <c r="F17">
-        <v>1.022977705025929</v>
+        <v>1.023019367518264</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047094827610241</v>
+        <v>1.047081595246103</v>
       </c>
       <c r="J17">
-        <v>1.017422728097565</v>
+        <v>1.017743759263789</v>
       </c>
       <c r="K17">
-        <v>1.031750606273381</v>
+        <v>1.031724900996969</v>
       </c>
       <c r="L17">
-        <v>1.013415480296046</v>
+        <v>1.013740367112173</v>
       </c>
       <c r="M17">
-        <v>1.036594499535639</v>
+        <v>1.03663547319678</v>
       </c>
       <c r="N17">
-        <v>1.009812029746336</v>
+        <v>1.012074030068618</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038668749411074</v>
+        <v>1.038701138794562</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033600941059751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033599439673458</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020868174057421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9903223893652275</v>
+        <v>0.9906239343206226</v>
       </c>
       <c r="D18">
-        <v>1.018493072091355</v>
+        <v>1.018430929430419</v>
       </c>
       <c r="E18">
-        <v>1.000031931307809</v>
+        <v>1.00033035466819</v>
       </c>
       <c r="F18">
-        <v>1.023202080286636</v>
+        <v>1.023216207857466</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047218821128463</v>
+        <v>1.047187360529623</v>
       </c>
       <c r="J18">
-        <v>1.017756057429907</v>
+        <v>1.018045898461444</v>
       </c>
       <c r="K18">
-        <v>1.032000047610118</v>
+        <v>1.031938928165983</v>
       </c>
       <c r="L18">
-        <v>1.013850113598545</v>
+        <v>1.014143388195734</v>
       </c>
       <c r="M18">
-        <v>1.036631983585557</v>
+        <v>1.036645881301922</v>
       </c>
       <c r="N18">
-        <v>1.009895384442632</v>
+        <v>1.0120937784964</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038460207181775</v>
+        <v>1.038471195525826</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033765627776332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033737952419858</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020897651475956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9903919154947265</v>
+        <v>0.9907048431411812</v>
       </c>
       <c r="D19">
-        <v>1.018441066405106</v>
+        <v>1.018388834235571</v>
       </c>
       <c r="E19">
-        <v>1.000059311677615</v>
+        <v>1.000369030531006</v>
       </c>
       <c r="F19">
-        <v>1.022805434152828</v>
+        <v>1.022826878286851</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047158414030103</v>
+        <v>1.047131968992497</v>
       </c>
       <c r="J19">
-        <v>1.017686102060017</v>
+        <v>1.017986957794109</v>
       </c>
       <c r="K19">
-        <v>1.03188601966186</v>
+        <v>1.031834643035495</v>
       </c>
       <c r="L19">
-        <v>1.013812483470591</v>
+        <v>1.014116887821469</v>
       </c>
       <c r="M19">
-        <v>1.036179297079992</v>
+        <v>1.036200393837855</v>
       </c>
       <c r="N19">
-        <v>1.009835935134388</v>
+        <v>1.01204181756917</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037775975358415</v>
+        <v>1.037792661162426</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033691423036596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033671260208134</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02085378025961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9885053126453035</v>
+        <v>0.9889494985890246</v>
       </c>
       <c r="D20">
-        <v>1.017002835091976</v>
+        <v>1.017085598878266</v>
       </c>
       <c r="E20">
-        <v>0.998378771928835</v>
+        <v>0.9988181762882694</v>
       </c>
       <c r="F20">
-        <v>1.02071726152527</v>
+        <v>1.020841146328964</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04658207227951</v>
+        <v>1.046623960259075</v>
       </c>
       <c r="J20">
-        <v>1.016486641041284</v>
+        <v>1.016913146477662</v>
       </c>
       <c r="K20">
-        <v>1.030753156758142</v>
+        <v>1.030834527471586</v>
       </c>
       <c r="L20">
-        <v>1.012450188707082</v>
+        <v>1.012881838522301</v>
       </c>
       <c r="M20">
-        <v>1.034405348864767</v>
+        <v>1.034527168062071</v>
       </c>
       <c r="N20">
-        <v>1.009374966219549</v>
+        <v>1.011777557380813</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035842920030552</v>
+        <v>1.035939327566846</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032894376675331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032968465037411</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020604471837011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.983734777685934</v>
+        <v>0.9845169931006851</v>
       </c>
       <c r="D21">
-        <v>1.013814407288779</v>
+        <v>1.014223037908886</v>
       </c>
       <c r="E21">
-        <v>0.9942835448212982</v>
+        <v>0.995056032499684</v>
       </c>
       <c r="F21">
-        <v>1.017344094126028</v>
+        <v>1.017721087083615</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045449236516617</v>
+        <v>1.045655822032225</v>
       </c>
       <c r="J21">
-        <v>1.013928641039844</v>
+        <v>1.014676625080673</v>
       </c>
       <c r="K21">
-        <v>1.028538704174758</v>
+        <v>1.028939869308905</v>
       </c>
       <c r="L21">
-        <v>1.009374032591594</v>
+        <v>1.010131679150849</v>
       </c>
       <c r="M21">
-        <v>1.032004162613794</v>
+        <v>1.032374329814846</v>
       </c>
       <c r="N21">
-        <v>1.008506411780836</v>
+        <v>1.011595518076871</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033901507767499</v>
+        <v>1.034194472941678</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031331908891795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031632441002172</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020208169705908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9806899621987107</v>
+        <v>0.9816867772082619</v>
       </c>
       <c r="D22">
-        <v>1.011788534271791</v>
+        <v>1.012403874499242</v>
       </c>
       <c r="E22">
-        <v>0.991679314612067</v>
+        <v>0.9926626263269802</v>
       </c>
       <c r="F22">
-        <v>1.01523835203483</v>
+        <v>1.015776088403378</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044716976177674</v>
+        <v>1.045027851465628</v>
       </c>
       <c r="J22">
-        <v>1.012301727739948</v>
+        <v>1.013252343735066</v>
       </c>
       <c r="K22">
-        <v>1.027130020306749</v>
+        <v>1.027733548994195</v>
       </c>
       <c r="L22">
-        <v>1.007417427866523</v>
+        <v>1.008380852961386</v>
       </c>
       <c r="M22">
-        <v>1.030513860165962</v>
+        <v>1.031041365102557</v>
       </c>
       <c r="N22">
-        <v>1.007955335928523</v>
+        <v>1.011472790840517</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032722021383196</v>
+        <v>1.033139510617671</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030322330935839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030764651167211</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019954507574687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9823020317017244</v>
+        <v>0.9831722097769204</v>
       </c>
       <c r="D23">
-        <v>1.012856550129172</v>
+        <v>1.013353648638176</v>
       </c>
       <c r="E23">
-        <v>0.9930563434138888</v>
+        <v>0.9939152503110595</v>
       </c>
       <c r="F23">
-        <v>1.016351045457827</v>
+        <v>1.016796077900932</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045103039057775</v>
+        <v>1.045354268641093</v>
       </c>
       <c r="J23">
-        <v>1.013159812947486</v>
+        <v>1.013990860154621</v>
       </c>
       <c r="K23">
-        <v>1.027870532238542</v>
+        <v>1.028358333546708</v>
       </c>
       <c r="L23">
-        <v>1.008450588426143</v>
+        <v>1.009292587296568</v>
       </c>
       <c r="M23">
-        <v>1.031299921610242</v>
+        <v>1.031736704539616</v>
       </c>
       <c r="N23">
-        <v>1.008244634162482</v>
+        <v>1.011492544462006</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03334414284593</v>
+        <v>1.033689830641159</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030836226017419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031195777629199</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020084236588413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9885330287231112</v>
+        <v>0.988977964457577</v>
       </c>
       <c r="D24">
-        <v>1.016999276301757</v>
+        <v>1.0170822880927</v>
       </c>
       <c r="E24">
-        <v>0.9983959812520253</v>
+        <v>0.9988361383465348</v>
       </c>
       <c r="F24">
-        <v>1.020671783170776</v>
+        <v>1.020795919042941</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046572050834446</v>
+        <v>1.046614065025237</v>
       </c>
       <c r="J24">
-        <v>1.016479749441223</v>
+        <v>1.016907001199682</v>
       </c>
       <c r="K24">
-        <v>1.030734300296495</v>
+        <v>1.030815916620739</v>
       </c>
       <c r="L24">
-        <v>1.012451323932982</v>
+        <v>1.012883723573906</v>
       </c>
       <c r="M24">
-        <v>1.034345350291801</v>
+        <v>1.034467418787445</v>
       </c>
       <c r="N24">
-        <v>1.009366203199695</v>
+        <v>1.011767423376268</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035754415576689</v>
+        <v>1.035851025241547</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032853529150923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032925122315606</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020595458565195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9955138255077296</v>
+        <v>0.9956590566430848</v>
       </c>
       <c r="D25">
-        <v>1.02165385791561</v>
+        <v>1.021388767343843</v>
       </c>
       <c r="E25">
-        <v>1.00440794127861</v>
+        <v>1.004551950960013</v>
       </c>
       <c r="F25">
-        <v>1.025546231780518</v>
+        <v>1.025411860042645</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048158592342665</v>
+        <v>1.048024193022317</v>
       </c>
       <c r="J25">
-        <v>1.020193116317883</v>
+        <v>1.020333399220657</v>
       </c>
       <c r="K25">
-        <v>1.033925074478016</v>
+        <v>1.033663881821103</v>
       </c>
       <c r="L25">
-        <v>1.016938212857718</v>
+        <v>1.01708001234834</v>
       </c>
       <c r="M25">
-        <v>1.037760508832302</v>
+        <v>1.037628093611199</v>
       </c>
       <c r="N25">
-        <v>1.010620558396309</v>
+        <v>1.012638220904963</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038457297392595</v>
+        <v>1.038352499317499</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035106711918468</v>
+        <v>1.03493560503779</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021187941520703</v>
       </c>
     </row>
   </sheetData>
